--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_363.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_363.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32253-d76644-Reviews-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>147</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Holiday-Inn-Express-Costa-Mesa.h7046.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_363.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_363.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="658">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1860 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r588490594-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>32253</t>
+  </si>
+  <si>
+    <t>76644</t>
+  </si>
+  <si>
+    <t>588490594</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Convenient “older but remodeled” hotel</t>
+  </si>
+  <si>
+    <t>Checked in and was met by a young man who didn’t seem to know how to use the credit card machine. I am an IHG member (premier elite) and was told my IHG credit card was no good. I was forced to use another credit card that is not on file with IHG. We then parked in the garage and attempted to use the elevator, only to find it full of boxes and we were not able to fit in. After 10-15 minutes, the staff finally made room for us to fit beside the boxes so we did not have to take the stairs to the 3rd floor. Room was very nice and clean, but the old single pane windows make it very noisyMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Nancy S, General Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded 5 days ago</t>
+  </si>
+  <si>
+    <t>Responded 5 days ago</t>
+  </si>
+  <si>
+    <t>Checked in and was met by a young man who didn’t seem to know how to use the credit card machine. I am an IHG member (premier elite) and was told my IHG credit card was no good. I was forced to use another credit card that is not on file with IHG. We then parked in the garage and attempted to use the elevator, only to find it full of boxes and we were not able to fit in. After 10-15 minutes, the staff finally made room for us to fit beside the boxes so we did not have to take the stairs to the 3rd floor. Room was very nice and clean, but the old single pane windows make it very noisyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r587879895-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>587879895</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>Good, But Far from Great! Average at Best!</t>
+  </si>
+  <si>
+    <t>We stayed here recently. The location is a short distance away from the expensive Newport Beach water front locations. Free under ground parking. but it’s tight and no tall vehicles. Small outside very tight parking. The room and hallways were fine. Everything was clean. They use a smelly deodorizer in the rooms, so if you are chemical sensitive. forget it.  Up hill to the check in. Up hill to the rooms. Up hill to breakfast.The breakfast room is on the 2nd floor amd locked. You need a room key to get in. Why? By having the door closed all the time, it’s claustrophobic. I opened the door twice and the workers here closed it twice. Breakfast is so-so. Also, it gets stuffy inside the small breakfast room if the door is shut, lack of AC?. This isn’t the best Holiday Inn Express we ever stayed at, but it will do for a night or two.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We stayed here recently. The location is a short distance away from the expensive Newport Beach water front locations. Free under ground parking. but it’s tight and no tall vehicles. Small outside very tight parking. The room and hallways were fine. Everything was clean. They use a smelly deodorizer in the rooms, so if you are chemical sensitive. forget it.  Up hill to the check in. Up hill to the rooms. Up hill to breakfast.The breakfast room is on the 2nd floor amd locked. You need a room key to get in. Why? By having the door closed all the time, it’s claustrophobic. I opened the door twice and the workers here closed it twice. Breakfast is so-so. Also, it gets stuffy inside the small breakfast room if the door is shut, lack of AC?. This isn’t the best Holiday Inn Express we ever stayed at, but it will do for a night or two.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r585619424-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>585619424</t>
+  </si>
+  <si>
+    <t>06/06/2018</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>The lobby was nice, the staff was ver helpful, the room was nice and clean, the breakfast was yummy. I would return to this location again if in the area. I would also recommend this location to others.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>The lobby was nice, the staff was ver helpful, the room was nice and clean, the breakfast was yummy. I would return to this location again if in the area. I would also recommend this location to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r581556953-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>581556953</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t>Wedding!!</t>
+  </si>
+  <si>
+    <t>Just wanted to say that jesus have me the best service i have ever received. Service with a smile super helpful and friendly. He made sure we were taken care of. Definitely will be back!!-David CorroMoreShow less</t>
+  </si>
+  <si>
+    <t>Ronnie D, Guest Relations Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Just wanted to say that jesus have me the best service i have ever received. Service with a smile super helpful and friendly. He made sure we were taken care of. Definitely will be back!!-David CorroMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r581451270-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>581451270</t>
+  </si>
+  <si>
+    <t>Great deal for SoCal getaway</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 nights and it did exactly what we needed. It was a clean hotel. Safe area. Kevin checked us in and was great. We showed up about an hour before check in time and he was able to get us a room. The room was cleaned up and restocked each day. The breakfast is nothing to speak of, but it was free so we had just enough to hold us over until we could get out for food...and free coffee is always a plus. The room had a decent size fridge and coffee as well. We drove to Bolsa Chica/Huntington beach every day (takes 20-30 minutes depending on stop lights) but was a third of the price of staying on the beach. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 nights and it did exactly what we needed. It was a clean hotel. Safe area. Kevin checked us in and was great. We showed up about an hour before check in time and he was able to get us a room. The room was cleaned up and restocked each day. The breakfast is nothing to speak of, but it was free so we had just enough to hold us over until we could get out for food...and free coffee is always a plus. The room had a decent size fridge and coffee as well. We drove to Bolsa Chica/Huntington beach every day (takes 20-30 minutes depending on stop lights) but was a third of the price of staying on the beach. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r581104387-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>581104387</t>
+  </si>
+  <si>
+    <t>05/18/2018</t>
+  </si>
+  <si>
+    <t>A clean, comfortable  hotel in Costa Mesa</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here one night. We were visiting the area as tourists.The front desk staff was very helpful and friendly. The parking is under the building. The room was airy and clean. There are no views to speak of. The breakfast room was surprisingly small. We had to wait a while to get a seat. The food was the standard HI breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here one night. We were visiting the area as tourists.The front desk staff was very helpful and friendly. The parking is under the building. The room was airy and clean. There are no views to speak of. The breakfast room was surprisingly small. We had to wait a while to get a seat. The food was the standard HI breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r564622304-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>564622304</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express Costa Mesa</t>
+  </si>
+  <si>
+    <t>Room was clean.  Bed was OK. Room was ready early. The below window heat/air was old and loud.  Only stayed one night to see a play.  It was adequate for one night. Staff was friendly.  Near highway.  Stairs to get to elevator but they do have a handicapped ramp they can put down.  Slow elevator.  Should lower price based on area.  Free cookies at night was nice.  We missed breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded March 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2018</t>
+  </si>
+  <si>
+    <t>Room was clean.  Bed was OK. Room was ready early. The below window heat/air was old and loud.  Only stayed one night to see a play.  It was adequate for one night. Staff was friendly.  Near highway.  Stairs to get to elevator but they do have a handicapped ramp they can put down.  Slow elevator.  Should lower price based on area.  Free cookies at night was nice.  We missed breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r558689103-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>558689103</t>
+  </si>
+  <si>
+    <t>02/05/2018</t>
+  </si>
+  <si>
+    <t>Awe Customer Service</t>
+  </si>
+  <si>
+    <t>I used my Spire points to stay for two nights.  The customer service was the best I've experienced in a long time.  I was made to feel so welcome.Everything was in order and clean.  It's a long skinny hotel, with real estate along Newport Boulevard / Highway 55 being prime space.  There is NO parking for a moving truck or large vehicles.  The parking lot dead ends and does not go around the hotel.  The breakfast room is on the second floor; the fitness room on the third floor.  The business center is in the lobby and very nicely appointed.  There is coffee 24/7 in the lobby.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Ronnie D, Public Relations Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded February 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2018</t>
+  </si>
+  <si>
+    <t>I used my Spire points to stay for two nights.  The customer service was the best I've experienced in a long time.  I was made to feel so welcome.Everything was in order and clean.  It's a long skinny hotel, with real estate along Newport Boulevard / Highway 55 being prime space.  There is NO parking for a moving truck or large vehicles.  The parking lot dead ends and does not go around the hotel.  The breakfast room is on the second floor; the fitness room on the third floor.  The business center is in the lobby and very nicely appointed.  There is coffee 24/7 in the lobby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r556203134-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>556203134</t>
+  </si>
+  <si>
+    <t>01/24/2018</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t>Check-in was simple, room was clean, decent TV.  The staff was very friendly and helpful, especially Jesus.  He helped me with several recommendations in the area and was spot on with Amorelia!  The location is good, being near everything you could need.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Ronnie D, other at Holiday Inn Express Costa Mesa, responded to this reviewResponded January 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2018</t>
+  </si>
+  <si>
+    <t>Check-in was simple, room was clean, decent TV.  The staff was very friendly and helpful, especially Jesus.  He helped me with several recommendations in the area and was spot on with Amorelia!  The location is good, being near everything you could need.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r528741596-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>528741596</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>Above and Beyond Service</t>
+  </si>
+  <si>
+    <t>I traveled here on business this past week. The hotel has a strange layout, but I was expecting that per the reviews on here. I arrived a bit early and was checked in by Andrew. I am beyond impressed with the service provided. All throughout the day I saw him in different parts of the hotel either assisting staff or running back to the desk to greet someone. I will be returning just for the service as I'm sure the layout will grow on me.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r528320602-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>528320602</t>
+  </si>
+  <si>
+    <t>09/29/2017</t>
+  </si>
+  <si>
+    <t>This place rocks!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had a small emergency on a business trip and needed my own room quick, and the folks here took great care of me! The room was clean, AC worked awesome, I even needed a big favor upon check out and Andrew at the front desk really went the extra mile to make sure my needs (and my longboard!) were taken care of. I am a creature of habit, so I will definitely be staying this location again soon. Thank you guys so much, and if you're reading this still, STAY HERE! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r524762392-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>524762392</t>
+  </si>
+  <si>
+    <t>09/15/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New, close, and happy. </t>
+  </si>
+  <si>
+    <t>Staff - 5 Location - 4 Hotel - 5Andrew checked me in. He was 100% professional and also fun/genuine. No canned message but just a real good person doing an outstanding job. This is the service that keeps me coming back. The location is so close to everything there is to do. I ran to Balboa Island in the morning and could have gone to a concert in Irvine if I wanted to. It's not 5 stars only because it was not on the ocean, but it was very easy to find. The hotel is new clean and it has a fun setup. I'll come back for sure. It's easy walking distance to many fun restaurants. MoreShow less</t>
+  </si>
+  <si>
+    <t>Staff - 5 Location - 4 Hotel - 5Andrew checked me in. He was 100% professional and also fun/genuine. No canned message but just a real good person doing an outstanding job. This is the service that keeps me coming back. The location is so close to everything there is to do. I ran to Balboa Island in the morning and could have gone to a concert in Irvine if I wanted to. It's not 5 stars only because it was not on the ocean, but it was very easy to find. The hotel is new clean and it has a fun setup. I'll come back for sure. It's easy walking distance to many fun restaurants. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r507267186-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>507267186</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Everything you need!</t>
+  </si>
+  <si>
+    <t>Friendly staff, clean room, amazing bed, quiet and calm....everything I needed! Wish there were a few more things to do in the immediate vicinity but hardly anything to fault the hotel on! Will be back in March with the whole family!</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r503326029-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>503326029</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Super clean and efficient hotel</t>
+  </si>
+  <si>
+    <t>The locations is just far enough away to be easy to get to and from. Not too far not too close. The hotel is very clean and modern. Breakfast was pretty basic. Stop with the weird pre-made omlettes, downright scary. Check your garbage and you'll see most of them ended up there. I have on gripe with all these places. People go there on vacation, mostly with kids. What parent is able to get them up and seated by 9am cutoff. If it's to save money, think again. Most parents end up taking a bit of everything and bringing it to the room where most of it ends up in landfill. Just leave the place open till noon.MoreShow less</t>
+  </si>
+  <si>
+    <t>The locations is just far enough away to be easy to get to and from. Not too far not too close. The hotel is very clean and modern. Breakfast was pretty basic. Stop with the weird pre-made omlettes, downright scary. Check your garbage and you'll see most of them ended up there. I have on gripe with all these places. People go there on vacation, mostly with kids. What parent is able to get them up and seated by 9am cutoff. If it's to save money, think again. Most parents end up taking a bit of everything and bringing it to the room where most of it ends up in landfill. Just leave the place open till noon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r500340376-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>500340376</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Customer Service</t>
+  </si>
+  <si>
+    <t>Andrew, Leisha make this hotel !!! Their customer service is amazing. From the minute you check in Andrew takes care of all your needs. The kitchen staff is amazing and friendly. Andrew is the face of customer service!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r486415176-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>486415176</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Excellent Value Near Newport Beach</t>
+  </si>
+  <si>
+    <t>The Holiday Inn Express Costa Mesa is clean, quiet, good amenities (Keurigs in room, frig, microwave, pool, etc.), convenient to Newport Beach, and has an excellent staff.  Would definitely stay here again for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Ronnie D, Public Relations Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2017</t>
+  </si>
+  <si>
+    <t>The Holiday Inn Express Costa Mesa is clean, quiet, good amenities (Keurigs in room, frig, microwave, pool, etc.), convenient to Newport Beach, and has an excellent staff.  Would definitely stay here again for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r485773520-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>485773520</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>Good no frills hotel</t>
+  </si>
+  <si>
+    <t>Simple in decor, furnishings and layout, the Holiday Inn is a good base for business in Costa Mesa or pleasure in nearby Newport Beach. Midway between John Wayne Airport and Newport Beach, it's well located although not much going on in the immediate neighborhood. You'll need a car to get around but there's free underground parking. Rooms are simple, clean, and comfortable. The new beds are a bit on the soft side. There's a bare bones fitness room and tiny outdoor pool. Self serve free breakfast is ample with eggs, breakfast meat, pancakes, and sinfully delicious cinnamon rolls. Friendly and helpful staff make for a pleasant stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>Simple in decor, furnishings and layout, the Holiday Inn is a good base for business in Costa Mesa or pleasure in nearby Newport Beach. Midway between John Wayne Airport and Newport Beach, it's well located although not much going on in the immediate neighborhood. You'll need a car to get around but there's free underground parking. Rooms are simple, clean, and comfortable. The new beds are a bit on the soft side. There's a bare bones fitness room and tiny outdoor pool. Self serve free breakfast is ample with eggs, breakfast meat, pancakes, and sinfully delicious cinnamon rolls. Friendly and helpful staff make for a pleasant stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r483379597-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>483379597</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t>Great hotel. great staff</t>
+  </si>
+  <si>
+    <t>Booked short notice business trip with 2 night stay at this hotel. Arrived early but staff made extra effort to get a room ready for an early check in. Room, and breakfast area were clean. Jesus was very helpful when I arrived, as was the other gentleman working the desk in the daytime. Night time desk staff equally professional. Only down side is lack of a public seating area, the breakfast room is locked through the day. The only public work space is a medium size conference table very near the front desk, but the  staff happily accommodated my numerous meetings at the table through my stay. Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronnie D, General Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Booked short notice business trip with 2 night stay at this hotel. Arrived early but staff made extra effort to get a room ready for an early check in. Room, and breakfast area were clean. Jesus was very helpful when I arrived, as was the other gentleman working the desk in the daytime. Night time desk staff equally professional. Only down side is lack of a public seating area, the breakfast room is locked through the day. The only public work space is a medium size conference table very near the front desk, but the  staff happily accommodated my numerous meetings at the table through my stay. Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r478351303-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>478351303</t>
+  </si>
+  <si>
+    <t>04/23/2017</t>
+  </si>
+  <si>
+    <t>Great hotel, great staff, great location</t>
+  </si>
+  <si>
+    <t>I booked this hotel around midnight the night before our trip to Cali because the reviews and price were so great.  They were correct! The staff is all awesome. Jesus was just as great as all the reviews stated! All other staff were great too! I love that our standard room had a counter space with sink, fridge, coffee maker, cabinet space, and a microwave! The rooms are a good size as well.  The location is great.  We hit Laguna Beach and found great spots! (down from Diamond Street is so beautiful!!) Close to Newport/Balboa.  There are local restaurants near just down the road like Yard House, True Food, Baja Fresh plus many more.  Getting onto the freeway is cake! There's a grocery store just down the road and a liquor store too.  Will stay here again when in Cali.  Oh! Parking is FREE!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this hotel around midnight the night before our trip to Cali because the reviews and price were so great.  They were correct! The staff is all awesome. Jesus was just as great as all the reviews stated! All other staff were great too! I love that our standard room had a counter space with sink, fridge, coffee maker, cabinet space, and a microwave! The rooms are a good size as well.  The location is great.  We hit Laguna Beach and found great spots! (down from Diamond Street is so beautiful!!) Close to Newport/Balboa.  There are local restaurants near just down the road like Yard House, True Food, Baja Fresh plus many more.  Getting onto the freeway is cake! There's a grocery store just down the road and a liquor store too.  Will stay here again when in Cali.  Oh! Parking is FREE!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r476661613-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>476661613</t>
+  </si>
+  <si>
+    <t>04/17/2017</t>
+  </si>
+  <si>
+    <t>Very happy customer</t>
+  </si>
+  <si>
+    <t>Jesus the receptionist is by far the best! Treats you like family! I would recommend this hotel! (: The hotel is super clean &amp; they leave you an extra towel for emergencies! I'll be coming back for a trip here again! MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Jesus the receptionist is by far the best! Treats you like family! I would recommend this hotel! (: The hotel is super clean &amp; they leave you an extra towel for emergencies! I'll be coming back for a trip here again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r471754356-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>471754356</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised! Also, Jesus at desk was awesome!</t>
+  </si>
+  <si>
+    <t>I had a very nice stay at this property.The layout and design is a bit funky/non traditional, but they make it work for the space that they have.I stayed here November of 2016 -- there was some construction goii on .. but it was fine.Jesus at the desk was wonderful, accommodating .... a pleasure to deal with.The lobby (small) appeared to be newly renovated.There was a convenient parking garage under the hotel.The a/c-heat unit wired well.There was large mini fridge with freezer compartment and micro in my room.The continental breakfast area was in the second floor.Again ... they made the best use of the space that they had to work wtih.There was no smell in my room.I would stay here again!: -)MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>I had a very nice stay at this property.The layout and design is a bit funky/non traditional, but they make it work for the space that they have.I stayed here November of 2016 -- there was some construction goii on .. but it was fine.Jesus at the desk was wonderful, accommodating .... a pleasure to deal with.The lobby (small) appeared to be newly renovated.There was a convenient parking garage under the hotel.The a/c-heat unit wired well.There was large mini fridge with freezer compartment and micro in my room.The continental breakfast area was in the second floor.Again ... they made the best use of the space that they had to work wtih.There was no smell in my room.I would stay here again!: -)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r469880909-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>469880909</t>
+  </si>
+  <si>
+    <t>03/24/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>The hotel is in a very convenient location to my office and to great restaurants. The staff is very friendly, rooms are clean and includes breakfast everyday.  I would recommend the hotel to anyone.  There is covered parking as well.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r469478344-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>469478344</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice hotel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The only problem I had here was the ability to hear people in the other rooms, both above and beside me. The walls seemed paper thin and I couldn't understand how with carpeted floors, the noise above was so loud. Maybe suggest the top floor! That was a bit of a bother, but it is a nice hotel with a nice staff and covered parking. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r468965633-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>468965633</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>Awesome Experience</t>
+  </si>
+  <si>
+    <t>I had an awesome experience from start to finish.  The staff is extremely pleasant and Andrew at the front desk was very helpful and had a fantastic attitude.  I will definitely book this place again when I'm back in the area!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r453367087-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>453367087</t>
+  </si>
+  <si>
+    <t>01/19/2017</t>
+  </si>
+  <si>
+    <t>Nice and clean hotel at a decent price</t>
+  </si>
+  <si>
+    <t>All in all I had a nice stay.  My room was nice and clean and actually smelled good when I checked in.  The location worked out well for me as I was able to walk to some good spots to eat in the area and I enjoyed running through some of the neighborhoods behind the hotel.  My only areas of concern were that the nightstand drawer would open by itself and I ended up hitting it one time when getting out of bed and the "office" chair they put in the room was extremely uncomfortable and provided no support.  The breakfast that was included was nice as well, I enjoyed the fact they had gravy both mornings and the eggs were cooked well both times.  All in all it was a pleasant stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded February 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2017</t>
+  </si>
+  <si>
+    <t>All in all I had a nice stay.  My room was nice and clean and actually smelled good when I checked in.  The location worked out well for me as I was able to walk to some good spots to eat in the area and I enjoyed running through some of the neighborhoods behind the hotel.  My only areas of concern were that the nightstand drawer would open by itself and I ended up hitting it one time when getting out of bed and the "office" chair they put in the room was extremely uncomfortable and provided no support.  The breakfast that was included was nice as well, I enjoyed the fact they had gravy both mornings and the eggs were cooked well both times.  All in all it was a pleasant stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r452014536-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>452014536</t>
+  </si>
+  <si>
+    <t>01/14/2017</t>
+  </si>
+  <si>
+    <t>Clean and Comfortable</t>
+  </si>
+  <si>
+    <t>We started our vacation staying at this hotel because of the location to our family reunion and Disneyland. It was a nice hotel- very quiet and clean. There was some construction/painting going on during our visit but it wasn't disruptive like often times. The only complaint is that i think the maid may have pushed a button on the TV that caused it to come on while we were out. It was kind of scary to come back to our room rather late at night and hear the loud TV coming from our room- then it came back on at 4 am while we were sleeping. Other than that we enjoyed our 3 nights here.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Ronnie D, Public Relations Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded February 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2017</t>
+  </si>
+  <si>
+    <t>We started our vacation staying at this hotel because of the location to our family reunion and Disneyland. It was a nice hotel- very quiet and clean. There was some construction/painting going on during our visit but it wasn't disruptive like often times. The only complaint is that i think the maid may have pushed a button on the TV that caused it to come on while we were out. It was kind of scary to come back to our room rather late at night and hear the loud TV coming from our room- then it came back on at 4 am while we were sleeping. Other than that we enjoyed our 3 nights here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r449917122-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>449917122</t>
+  </si>
+  <si>
+    <t>01/06/2017</t>
+  </si>
+  <si>
+    <t>Neighborhood may not be ideal, but the breakfast is good one.</t>
+  </si>
+  <si>
+    <t>I arrived in the night, and was surprised to open curtain seeing all small houses/trailers surrounding in the morning. No way I can take a walk around the hotel.The breakfast is pretty good, varies of  yogurts and fruit, egg, sausage, muffin, biscuit.For me it is just one night stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I arrived in the night, and was surprised to open curtain seeing all small houses/trailers surrounding in the morning. No way I can take a walk around the hotel.The breakfast is pretty good, varies of  yogurts and fruit, egg, sausage, muffin, biscuit.For me it is just one night stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r442606374-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>442606374</t>
+  </si>
+  <si>
+    <t>12/07/2016</t>
+  </si>
+  <si>
+    <t>Comfortable and convenient</t>
+  </si>
+  <si>
+    <t>Larger than average rooms with spacious bathrooms. Clean rooms. Comfortable bed. Staff was helpful and always had a smile on their faces. Convenient location. I was a short drive from the airport, Newport Beach and South Coast Plaza. Enjoyed the complimentary breakfast. Wi fi was fantastic, which was helpful as I was here on business. Great choice compared to the other questionable options nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronnie D, Public Relations Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded December 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2016</t>
+  </si>
+  <si>
+    <t>Larger than average rooms with spacious bathrooms. Clean rooms. Comfortable bed. Staff was helpful and always had a smile on their faces. Convenient location. I was a short drive from the airport, Newport Beach and South Coast Plaza. Enjoyed the complimentary breakfast. Wi fi was fantastic, which was helpful as I was here on business. Great choice compared to the other questionable options nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r437932178-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>437932178</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>Nice weekend stay</t>
+  </si>
+  <si>
+    <t>Hotel was nice and clean. Jesus the desk clerk was exceptional, friendly, cordial and  very helpful.  Room was  big enough for sure.  Breakfast had a lot of different things, so was great.  Only negative was the room above had a little kid or two running back and forth.  We'd go again, but ask for a 3rd floor room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronnie D, Public Relations Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded November 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2016</t>
+  </si>
+  <si>
+    <t>Hotel was nice and clean. Jesus the desk clerk was exceptional, friendly, cordial and  very helpful.  Room was  big enough for sure.  Breakfast had a lot of different things, so was great.  Only negative was the room above had a little kid or two running back and forth.  We'd go again, but ask for a 3rd floor room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r429283051-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>429283051</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>All expected amenities (despite construction issues) received.</t>
+  </si>
+  <si>
+    <t>H I Express has become our favorite hotel chain because we always (including this trip)receive those amenities we've learned to expect. This, even though the whole first floor was under going renovation and a pipe broke, causing the water to be shut off.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Ronnie D, General Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded November 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2016</t>
+  </si>
+  <si>
+    <t>H I Express has become our favorite hotel chain because we always (including this trip)receive those amenities we've learned to expect. This, even though the whole first floor was under going renovation and a pipe broke, causing the water to be shut off.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r420462089-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>420462089</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>Staff at the hotel were extremely friendly and helpful. The rooms were nice, comfortable, and most importantly clean. The hotel was located in a good area for our traveling purposes--OC Fair and Expo center and dinner. Breakfast was also good.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronnie D, General Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded October 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2016</t>
+  </si>
+  <si>
+    <t>Staff at the hotel were extremely friendly and helpful. The rooms were nice, comfortable, and most importantly clean. The hotel was located in a good area for our traveling purposes--OC Fair and Expo center and dinner. Breakfast was also good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r418833322-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>418833322</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t>Fantastic Staff! Clean large rooms, friendly atmosphere.</t>
+  </si>
+  <si>
+    <t>We enjoyed The Holliday Inn Express Costa Mesa, the front desk staff, Carmen made sure our breakfast was ready and very tasty! Our room was large and clean. Parking was easy and free, wifi was good, in all we were very happy.MoreShow less</t>
+  </si>
+  <si>
+    <t>We enjoyed The Holliday Inn Express Costa Mesa, the front desk staff, Carmen made sure our breakfast was ready and very tasty! Our room was large and clean. Parking was easy and free, wifi was good, in all we were very happy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r417735956-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>417735956</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">California dreaming. </t>
+  </si>
+  <si>
+    <t>Arrived late but room was ready and clean. Hotel convenient location to beach and several Orange County attractions. Room deodorizer used by housecleaning staff was a bit odd smelling but was easily dispersed when air conditioning was used. Accidentally left behind a phone charger in the room on departure but hotel staff unable to locate. Not sure who really has it now. Breakfast staff was helpful (Carmen). Would recommend that hotel management provide newspapers for use by guests in breakfast area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronnie D, Public Relations Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded September 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2016</t>
+  </si>
+  <si>
+    <t>Arrived late but room was ready and clean. Hotel convenient location to beach and several Orange County attractions. Room deodorizer used by housecleaning staff was a bit odd smelling but was easily dispersed when air conditioning was used. Accidentally left behind a phone charger in the room on departure but hotel staff unable to locate. Not sure who really has it now. Breakfast staff was helpful (Carmen). Would recommend that hotel management provide newspapers for use by guests in breakfast area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r410742376-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>410742376</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>Super location</t>
+  </si>
+  <si>
+    <t>This HI-Express is completely renovated in the lobby and hallways.  They have free underground parking, free wifi, free breakfast, and Michael at the front desk is friendly and helpful.  The rooms are clean and large and have plugs near the bed and on the desk for all my chargers.If you're the type of person who needs to sleep in complete silence, this HI-Express is near enough a major road that you may hear traffic, so I wouldn't recommend it.  I love the location because I can walk to the Yard House or Skosh Monahans for a beer and a meal.  I also love the proximity to the other city attractions and access to the I-405 and I-5 highways.I will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>This HI-Express is completely renovated in the lobby and hallways.  They have free underground parking, free wifi, free breakfast, and Michael at the front desk is friendly and helpful.  The rooms are clean and large and have plugs near the bed and on the desk for all my chargers.If you're the type of person who needs to sleep in complete silence, this HI-Express is near enough a major road that you may hear traffic, so I wouldn't recommend it.  I love the location because I can walk to the Yard House or Skosh Monahans for a beer and a meal.  I also love the proximity to the other city attractions and access to the I-405 and I-5 highways.I will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r409626396-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>409626396</t>
+  </si>
+  <si>
+    <t>08/23/2016</t>
+  </si>
+  <si>
+    <t>Nice and Tidy Hotel</t>
+  </si>
+  <si>
+    <t>We hold our quarterly meetings at this hotel. The staff is friendly and accommodating and the hotel is tidy. The rooms are clean and comfortable and house a refrigerator, microwave, and Keurig machine. The location is a bit funky but there are plenty of places to shop and eat nearby.  Underground parking is free and easily accessible.  For our needs, the meeting room is not in an ideal location. It sits on the third floor next to and adjacent to guest rooms. At times, we heard guests talking and doors opening and closing to guest rooms, along with children running up and down the halls, so these were a distraction, even with the meeting room door closed.  The nearest restroom is on the lobby floor, so it was a bit inconvenient at times. The hotel offers a complimentary continental breakfast on the 2nd floor and provide the usual breakfast items. It is a rather small room, so if the hotel was crowded, the space would be cramped.  But in all fairness, this is a smaller hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronnie D, Public Relations Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded August 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2016</t>
+  </si>
+  <si>
+    <t>We hold our quarterly meetings at this hotel. The staff is friendly and accommodating and the hotel is tidy. The rooms are clean and comfortable and house a refrigerator, microwave, and Keurig machine. The location is a bit funky but there are plenty of places to shop and eat nearby.  Underground parking is free and easily accessible.  For our needs, the meeting room is not in an ideal location. It sits on the third floor next to and adjacent to guest rooms. At times, we heard guests talking and doors opening and closing to guest rooms, along with children running up and down the halls, so these were a distraction, even with the meeting room door closed.  The nearest restroom is on the lobby floor, so it was a bit inconvenient at times. The hotel offers a complimentary continental breakfast on the 2nd floor and provide the usual breakfast items. It is a rather small room, so if the hotel was crowded, the space would be cramped.  But in all fairness, this is a smaller hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r398854898-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>398854898</t>
+  </si>
+  <si>
+    <t>07/29/2016</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>Stayed here after a trip to OC Fair, it is parellel to the 55fwy kind of a strange location. Check in was smooth, our room was on 1st flr. The hotel was filled up with a girls softball team so there were a lot of kids running around. Our room was clean, seemed a little older furniture but worked. There was a flat screen, a sink, kuerig machine, microwave and small fridge. We had a couch and desk in room. Parking is real tight. There is an underground parking but if you have a big truck like us you have to park next to building, very tight area. There is a pool, looked nice. There is free breakfast but missed it, was only til 930 am on weekends. Check out is at noon which was nice.  Staff was pleasant. Over all good stay, nothing special. Did not find a lot of eating places around hotel. The a/c worked great. I thought the price was too high. $200MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Ronnie D, Public Relations Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded July 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here after a trip to OC Fair, it is parellel to the 55fwy kind of a strange location. Check in was smooth, our room was on 1st flr. The hotel was filled up with a girls softball team so there were a lot of kids running around. Our room was clean, seemed a little older furniture but worked. There was a flat screen, a sink, kuerig machine, microwave and small fridge. We had a couch and desk in room. Parking is real tight. There is an underground parking but if you have a big truck like us you have to park next to building, very tight area. There is a pool, looked nice. There is free breakfast but missed it, was only til 930 am on weekends. Check out is at noon which was nice.  Staff was pleasant. Over all good stay, nothing special. Did not find a lot of eating places around hotel. The a/c worked great. I thought the price was too high. $200More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r389575388-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>389575388</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Excellent staff, clean and comfortable rooms and facilities</t>
+  </si>
+  <si>
+    <t>I had a great stay here, and I especially want to recognize front desk attendant Jesse. I arrived having just discovered a small problem with my reservation owing to a glitch in the online reservations system. As I was explaining the problem to Jesse, another guest came up to the desk to let him know the elevator wasn't working, and then, not three minutes later, yet another guest came up to let him know about a flooding problem in the parking garage. Jesse was extremely empathetic and professional. He got to work on all three problems immediately and had them all resolved in less than 24 hours. He also very helpfully made change for me a little later during my stay. The housekeeping staff also did an excellent job. The three women I interacted with were all very friendly, and my room and all the common areas I saw were immaculate. I would stay at this hotel again in a heartbeat.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>I had a great stay here, and I especially want to recognize front desk attendant Jesse. I arrived having just discovered a small problem with my reservation owing to a glitch in the online reservations system. As I was explaining the problem to Jesse, another guest came up to the desk to let him know the elevator wasn't working, and then, not three minutes later, yet another guest came up to let him know about a flooding problem in the parking garage. Jesse was extremely empathetic and professional. He got to work on all three problems immediately and had them all resolved in less than 24 hours. He also very helpfully made change for me a little later during my stay. The housekeeping staff also did an excellent job. The three women I interacted with were all very friendly, and my room and all the common areas I saw were immaculate. I would stay at this hotel again in a heartbeat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r381660067-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>381660067</t>
+  </si>
+  <si>
+    <t>06/11/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clint </t>
+  </si>
+  <si>
+    <t>Tyler in the front office could not have been any more nice or helpful. The place was clean they let us have early check in. We will definitely stay here again! The pool was great and so was the breakfast!I want to write a good review for this place but it's making me use 200 characters so we like this place very very very very very very very very very very very very very very very very very very very very very very very very muchMoreShow less</t>
+  </si>
+  <si>
+    <t>Ronnie D, Public Relations Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded June 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2016</t>
+  </si>
+  <si>
+    <t>Tyler in the front office could not have been any more nice or helpful. The place was clean they let us have early check in. We will definitely stay here again! The pool was great and so was the breakfast!I want to write a good review for this place but it's making me use 200 characters so we like this place very very very very very very very very very very very very very very very very very very very very very very very very muchMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r381406115-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>381406115</t>
+  </si>
+  <si>
+    <t>06/10/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very reliable </t>
+  </si>
+  <si>
+    <t>I know isn't a "5 star" hotel with room service and a concierge, but the service is excellent and the rooms are immaculate.  We have stayed there over 20 times in the last decade and they have always been great.  I would recommend a room with a soaking tub, so relaxing!  MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>I know isn't a "5 star" hotel with room service and a concierge, but the service is excellent and the rooms are immaculate.  We have stayed there over 20 times in the last decade and they have always been great.  I would recommend a room with a soaking tub, so relaxing!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r376105315-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>376105315</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Very much enjoyed our stay and especially the breakfast service.  Maria Sanchez does a great job and making sure the breakfast is tasty and fresh.  The hotel was clean and pleasant.  Beds are comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Very much enjoyed our stay and especially the breakfast service.  Maria Sanchez does a great job and making sure the breakfast is tasty and fresh.  The hotel was clean and pleasant.  Beds are comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r372815528-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>372815528</t>
+  </si>
+  <si>
+    <t>05/14/2016</t>
+  </si>
+  <si>
+    <t>Updated Holiday Inn Hotel</t>
+  </si>
+  <si>
+    <t>This is a recent update Holiday Inn hotel, if you need a overnight near Los Angeles, It is also a good place, to a day trip out of sight seeing Los Angeles or the coast area. The staff is very friendly at the check in and there is parking garage under the property and around the place. We did stay at 3e floor at a nice and clean new updated 2 queens room (525), the property have no restaurant around but there are many restaurants in the area so we did eat at a Outback one mile away, there is free internet for IHG members, so we think good value/prize.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a recent update Holiday Inn hotel, if you need a overnight near Los Angeles, It is also a good place, to a day trip out of sight seeing Los Angeles or the coast area. The staff is very friendly at the check in and there is parking garage under the property and around the place. We did stay at 3e floor at a nice and clean new updated 2 queens room (525), the property have no restaurant around but there are many restaurants in the area so we did eat at a Outback one mile away, there is free internet for IHG members, so we think good value/prize.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r371553957-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>371553957</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>We recently stayed here for a conference and had a great stay. The room was clean and spacious. Beds were comfy and the bathroom was clean and nice. There was a large variety for breakfast and it was relatively tasty. The only complaint is the small availability of parking spaces. We had 16 people in our group and thankfully took 3 vehicles. If we had taken any more than that there wouldn't have been sufficient parking. Other than that, it was wonderful! We will definitely be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronnie D, Public Relations Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded May 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2016</t>
+  </si>
+  <si>
+    <t>We recently stayed here for a conference and had a great stay. The room was clean and spacious. Beds were comfy and the bathroom was clean and nice. There was a large variety for breakfast and it was relatively tasty. The only complaint is the small availability of parking spaces. We had 16 people in our group and thankfully took 3 vehicles. If we had taken any more than that there wouldn't have been sufficient parking. Other than that, it was wonderful! We will definitely be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r365269285-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>365269285</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>Great customer service!!!</t>
+  </si>
+  <si>
+    <t>I always stay in this hotel when im around the area, which means im in this hotel every month due to work.First and foremost i would to commend the staff from morning to evening shift  (Tyler, Jesse &amp; Donnette) they are all very special, professional and friendly. They are the corpse of the success of the hotel. They always say, In every success of a company there are great people behind it. They are really very attentive to your needs. They brings stuff to your room without complain. Housekeepers are all friendly and helpful.You will feel at home and safe in this hotel. The rooms are clean and very conducive to sleep. The bed and pillows are perfect. I love their shower head it gives you that massage feeling when you adjust it to a certain level. breakfast is free. They have a gym as well. Overall, great hotel and great staff with exceptional customer service!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Ronnie D, Public Relations Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded April 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2016</t>
+  </si>
+  <si>
+    <t>I always stay in this hotel when im around the area, which means im in this hotel every month due to work.First and foremost i would to commend the staff from morning to evening shift  (Tyler, Jesse &amp; Donnette) they are all very special, professional and friendly. They are the corpse of the success of the hotel. They always say, In every success of a company there are great people behind it. They are really very attentive to your needs. They brings stuff to your room without complain. Housekeepers are all friendly and helpful.You will feel at home and safe in this hotel. The rooms are clean and very conducive to sleep. The bed and pillows are perfect. I love their shower head it gives you that massage feeling when you adjust it to a certain level. breakfast is free. They have a gym as well. Overall, great hotel and great staff with exceptional customer service!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r364969656-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>364969656</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>Close to everything...Beach, Freeway access, movie theater, shops, etc. Parking was so full people were parking in areas that weren't marked as spaces. Stairs at many of the entrances so not easy to get to the elevator. But, room was clean. Person above us wasn't very quiet but that isn't the fault of the motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Close to everything...Beach, Freeway access, movie theater, shops, etc. Parking was so full people were parking in areas that weren't marked as spaces. Stairs at many of the entrances so not easy to get to the elevator. But, room was clean. Person above us wasn't very quiet but that isn't the fault of the motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r364232832-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>364232832</t>
+  </si>
+  <si>
+    <t>04/14/2016</t>
+  </si>
+  <si>
+    <t>Great Job!</t>
+  </si>
+  <si>
+    <t>During our stay, we had a pleasant experience, in particular we were delighted with Efren, our breakfast host. Every item on the menu was fully stocked - always!  He also made sure the breakfast room was clean and appealing. Thanks, Efren - great job!Bill JensenMoreShow less</t>
+  </si>
+  <si>
+    <t>During our stay, we had a pleasant experience, in particular we were delighted with Efren, our breakfast host. Every item on the menu was fully stocked - always!  He also made sure the breakfast room was clean and appealing. Thanks, Efren - great job!Bill JensenMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r345684832-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>345684832</t>
+  </si>
+  <si>
+    <t>02/07/2016</t>
+  </si>
+  <si>
+    <t>Reasonable prices</t>
+  </si>
+  <si>
+    <t>A hotel with reasonable prices, but average services. I had to to business for a few weeks and I should have considered the lack of a laundry service and a restaurant.Anyway, you can use the onsite laundry, when it works, and order food for delivery.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Thomas H, General Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded February 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2016</t>
+  </si>
+  <si>
+    <t>A hotel with reasonable prices, but average services. I had to to business for a few weeks and I should have considered the lack of a laundry service and a restaurant.Anyway, you can use the onsite laundry, when it works, and order food for delivery.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r344199714-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>344199714</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>Odd Layout but Fine</t>
+  </si>
+  <si>
+    <t>My guess would be that this is either a hotel that was renovated or they had an odd piece of land onto which to place it so the lay out is just different.  The lobby is the lobby.  It's wheelchair accessible to the elevators with the use of a wheelchair list, meaning other will have to carry their bags up a few stairs.  The breakfast room is on the second floor.  There are several turns off the elevator to get to the main hall.  (They do need to not block open the fire doors even though it makes it easier to navigate the labyrinth.)  All this said, the room was fine except for the fact that the windows were single pane so the noise from the service road and highway was significant.  I slept well and the rooms are clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Thomas H, General Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded February 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2016</t>
+  </si>
+  <si>
+    <t>My guess would be that this is either a hotel that was renovated or they had an odd piece of land onto which to place it so the lay out is just different.  The lobby is the lobby.  It's wheelchair accessible to the elevators with the use of a wheelchair list, meaning other will have to carry their bags up a few stairs.  The breakfast room is on the second floor.  There are several turns off the elevator to get to the main hall.  (They do need to not block open the fire doors even though it makes it easier to navigate the labyrinth.)  All this said, the room was fine except for the fact that the windows were single pane so the noise from the service road and highway was significant.  I slept well and the rooms are clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r340824188-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>340824188</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t>Good hotel with great customer service</t>
+  </si>
+  <si>
+    <t>I stayed here for one night and it was quite a nice place. The front desk people were very friendly and very helpful with giving me places to eat that are near as well as directions. They also got me a taxi to show up when I needed it and very fast with room requests. The room itself was very nice and I was surprised at how nice it actually was. The only downside to this hotel for me was that I could hear the next room very clearly but I was really only there a little while as I was out most of the time. They do not have shuttles to the airport either so be aware of that as a taxi van cost me $17 to get there. Over all a good place to stay with plenty of places to eat as well as clubs near by.MoreShow less</t>
+  </si>
+  <si>
+    <t>Thomas H, General Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded January 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for one night and it was quite a nice place. The front desk people were very friendly and very helpful with giving me places to eat that are near as well as directions. They also got me a taxi to show up when I needed it and very fast with room requests. The room itself was very nice and I was surprised at how nice it actually was. The only downside to this hotel for me was that I could hear the next room very clearly but I was really only there a little while as I was out most of the time. They do not have shuttles to the airport either so be aware of that as a taxi van cost me $17 to get there. Over all a good place to stay with plenty of places to eat as well as clubs near by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r334118908-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>334118908</t>
+  </si>
+  <si>
+    <t>12/20/2015</t>
+  </si>
+  <si>
+    <t>Ok, but not the best choice in the area</t>
+  </si>
+  <si>
+    <t>Stayed here on business in Costa Mesa.  This hotel was ok, but a little less than what I typically have come to expect in HI Express.  Pros:  - I had a room in the inner part of the hotel, so it was fairly quiet; - Clean, comfortable room; Cons:  - Not a good location...on an access road right on the freeway, in a questionable neighborhood; - Small, compact lobby without the typical breakfast buffet layout;MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Thomas H, General Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded December 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here on business in Costa Mesa.  This hotel was ok, but a little less than what I typically have come to expect in HI Express.  Pros:  - I had a room in the inner part of the hotel, so it was fairly quiet; - Clean, comfortable room; Cons:  - Not a good location...on an access road right on the freeway, in a questionable neighborhood; - Small, compact lobby without the typical breakfast buffet layout;More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r331731866-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>331731866</t>
+  </si>
+  <si>
+    <t>12/09/2015</t>
+  </si>
+  <si>
+    <t>This is not a great place!</t>
+  </si>
+  <si>
+    <t>First, the hotel is obviously a converted Quality Inn or Motel 6. The layout is horrible. First you can't park your car and check in, theres no space for you car. Then the checkin area is small and there are steps to drag you bag up to get to the elevator. The breakfast area is in an old room and is tiny and cramped. You cant sit without breathing on your neighbor and don't try to get up and move about because the tables are so close you might get stuck. Good luck finding it because it's on the second floor tucked away. If you want to workout, again its in a small former room and its on the third floor. The rooms appear at first to be decent then you see how the carpet is pulled away from the tile and of course they have those little tiny bars if soap...smaller than the ones you throw away at home. The topper is when i checked in they didn't have water (platinum elite amenity) and they couldn't be bothered to go down the street to the grocery store and get any. After three days they finally gave me a "special" bottle from their "pantry" and acted like i was so very lucky to get that. If you are a IGH elite member, don't expect acknowledgment....you are nothing more than a regular "guest" here. I was supposed to stay another week...First, the hotel is obviously a converted Quality Inn or Motel 6. The layout is horrible. First you can't park your car and check in, theres no space for you car. Then the checkin area is small and there are steps to drag you bag up to get to the elevator. The breakfast area is in an old room and is tiny and cramped. You cant sit without breathing on your neighbor and don't try to get up and move about because the tables are so close you might get stuck. Good luck finding it because it's on the second floor tucked away. If you want to workout, again its in a small former room and its on the third floor. The rooms appear at first to be decent then you see how the carpet is pulled away from the tile and of course they have those little tiny bars if soap...smaller than the ones you throw away at home. The topper is when i checked in they didn't have water (platinum elite amenity) and they couldn't be bothered to go down the street to the grocery store and get any. After three days they finally gave me a "special" bottle from their "pantry" and acted like i was so very lucky to get that. If you are a IGH elite member, don't expect acknowledgment....you are nothing more than a regular "guest" here. I was supposed to stay another week but i wont because this place falls far below even the modest standards of a Holiday Inn Express.  Don't waste your money here, there are much better values nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>Thomas H, General Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded December 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2015</t>
+  </si>
+  <si>
+    <t>First, the hotel is obviously a converted Quality Inn or Motel 6. The layout is horrible. First you can't park your car and check in, theres no space for you car. Then the checkin area is small and there are steps to drag you bag up to get to the elevator. The breakfast area is in an old room and is tiny and cramped. You cant sit without breathing on your neighbor and don't try to get up and move about because the tables are so close you might get stuck. Good luck finding it because it's on the second floor tucked away. If you want to workout, again its in a small former room and its on the third floor. The rooms appear at first to be decent then you see how the carpet is pulled away from the tile and of course they have those little tiny bars if soap...smaller than the ones you throw away at home. The topper is when i checked in they didn't have water (platinum elite amenity) and they couldn't be bothered to go down the street to the grocery store and get any. After three days they finally gave me a "special" bottle from their "pantry" and acted like i was so very lucky to get that. If you are a IGH elite member, don't expect acknowledgment....you are nothing more than a regular "guest" here. I was supposed to stay another week...First, the hotel is obviously a converted Quality Inn or Motel 6. The layout is horrible. First you can't park your car and check in, theres no space for you car. Then the checkin area is small and there are steps to drag you bag up to get to the elevator. The breakfast area is in an old room and is tiny and cramped. You cant sit without breathing on your neighbor and don't try to get up and move about because the tables are so close you might get stuck. Good luck finding it because it's on the second floor tucked away. If you want to workout, again its in a small former room and its on the third floor. The rooms appear at first to be decent then you see how the carpet is pulled away from the tile and of course they have those little tiny bars if soap...smaller than the ones you throw away at home. The topper is when i checked in they didn't have water (platinum elite amenity) and they couldn't be bothered to go down the street to the grocery store and get any. After three days they finally gave me a "special" bottle from their "pantry" and acted like i was so very lucky to get that. If you are a IGH elite member, don't expect acknowledgment....you are nothing more than a regular "guest" here. I was supposed to stay another week but i wont because this place falls far below even the modest standards of a Holiday Inn Express.  Don't waste your money here, there are much better values nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r331335109-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>331335109</t>
+  </si>
+  <si>
+    <t>12/07/2015</t>
+  </si>
+  <si>
+    <t>Responsive, Curteouse and Nice</t>
+  </si>
+  <si>
+    <t>I visited family the second week of November 2015 and stayed at this hotel using my priority rewards points for the first day of a 3 day weekend.  Upon my arrival, the staff was courteous and recognized me as a priority member and always greeted me with a smile.  When I had a problem, they were quick to resolve it.  Jessie was quite nice and very professional.  The location was perfect, only a few miles from family.  I'll be back next year.  You stick with what's good and this hotel is just that..good!  Thanks everyone,MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Thomas H, General Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded December 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2015</t>
+  </si>
+  <si>
+    <t>I visited family the second week of November 2015 and stayed at this hotel using my priority rewards points for the first day of a 3 day weekend.  Upon my arrival, the staff was courteous and recognized me as a priority member and always greeted me with a smile.  When I had a problem, they were quick to resolve it.  Jessie was quite nice and very professional.  The location was perfect, only a few miles from family.  I'll be back next year.  You stick with what's good and this hotel is just that..good!  Thanks everyone,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r327501771-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>327501771</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>Visited for a family wedding</t>
+  </si>
+  <si>
+    <t>Room was very quiet and bedding was comfy.  Breakfast was very good with lots of options.  Hotel was close to our venue with many dining options nearby.  Hotel staff was pleasant and easy to work with.  Had a nice time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Thomas H, General Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded November 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2015</t>
+  </si>
+  <si>
+    <t>Room was very quiet and bedding was comfy.  Breakfast was very good with lots of options.  Hotel was close to our venue with many dining options nearby.  Hotel staff was pleasant and easy to work with.  Had a nice time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r326249796-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>326249796</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>Good value for the money</t>
+  </si>
+  <si>
+    <t>My third visit to Holiday Inn Express Costa Mesa. Really nice staff and very helpful. Rooms are big and well maintained. Even you are close to a highway the room are quiet. The breakfast are not worthy to go for, typical Holiday Express type, could be way better. All in all a good value for the money.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Thomas H, General Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded November 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2015</t>
+  </si>
+  <si>
+    <t>My third visit to Holiday Inn Express Costa Mesa. Really nice staff and very helpful. Rooms are big and well maintained. Even you are close to a highway the room are quiet. The breakfast are not worthy to go for, typical Holiday Express type, could be way better. All in all a good value for the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r325854995-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>325854995</t>
+  </si>
+  <si>
+    <t>11/10/2015</t>
+  </si>
+  <si>
+    <t>Conference Trip</t>
+  </si>
+  <si>
+    <t>My room was clean and so nice.  The bed was amazing, pillows soft, and I loved having a mini fridge and microwave. Also, it was very quiet.  The staff was friendly and honestly it lives up to the Holiday Inn experience.  I would definitely recommend for friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>Thomas H, General Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded November 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2015</t>
+  </si>
+  <si>
+    <t>My room was clean and so nice.  The bed was amazing, pillows soft, and I loved having a mini fridge and microwave. Also, it was very quiet.  The staff was friendly and honestly it lives up to the Holiday Inn experience.  I would definitely recommend for friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r320761746-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>320761746</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>One night stay on a business trip.</t>
+  </si>
+  <si>
+    <t>I buy and sell collector cars, so I travel a lot. I needed a room in Costa Mesa one night recently, and I decided to stay at the Holiday Inn Express. My stay was quite pleasant. I used the Work Out Room there and it was well equipped and clean. One thing that impressed me was the cleanliness of the entire facility. It looked new. Parking in the underground garage was easy, and I felt that my truck was safe there. I'll be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Thomas H, General Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded October 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2015</t>
+  </si>
+  <si>
+    <t>I buy and sell collector cars, so I travel a lot. I needed a room in Costa Mesa one night recently, and I decided to stay at the Holiday Inn Express. My stay was quite pleasant. I used the Work Out Room there and it was well equipped and clean. One thing that impressed me was the cleanliness of the entire facility. It looked new. Parking in the underground garage was easy, and I felt that my truck was safe there. I'll be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r320720039-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>320720039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On our way to Catalina Island </t>
+  </si>
+  <si>
+    <t>We had a awesome stay the room was great, clean, nice bed to sleep in. The staff was very helpful. Breakfast was great. We will definitely stay here again. Great location close to where we needed to go. Thank you for a awesome stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a awesome stay the room was great, clean, nice bed to sleep in. The staff was very helpful. Breakfast was great. We will definitely stay here again. Great location close to where we needed to go. Thank you for a awesome stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r320109342-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>320109342</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>We stayed on our way to Kings Canyon, it was a nice stayed, friendly and helpful staff, room cleanness, parking area and breakfast was very nice, room was big, with enough space for us (4pax), microwave and small fridge was new and cleanMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Ronnie D, Guest Relations Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded October 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2015</t>
+  </si>
+  <si>
+    <t>We stayed on our way to Kings Canyon, it was a nice stayed, friendly and helpful staff, room cleanness, parking area and breakfast was very nice, room was big, with enough space for us (4pax), microwave and small fridge was new and cleanMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r309099868-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>309099868</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>Very pleased</t>
+  </si>
+  <si>
+    <t>Quiet, peaceful hotel, super-clean and remodelled, friendly and efficient staff, very clean, comfortable and spacious room, good breakfast, great new pool area, close to Newport Beach.  Hesitated to give this review as I suspect this hotel is a hidden gem.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Ronnie D, Guest Relations Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded October 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2015</t>
+  </si>
+  <si>
+    <t>Quiet, peaceful hotel, super-clean and remodelled, friendly and efficient staff, very clean, comfortable and spacious room, good breakfast, great new pool area, close to Newport Beach.  Hesitated to give this review as I suspect this hotel is a hidden gem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r307113324-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>307113324</t>
+  </si>
+  <si>
+    <t>09/04/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonderful experience at this hotel! Very clean &amp; updated!! We were very impressed. </t>
+  </si>
+  <si>
+    <t>Their breakfast was delicious &amp; had a good variety to offer. The front desk staff was wonderful !!!! Will for sure be back!!!! The rooms are large &amp; very clean. Ours had a small refrigerator &amp; microwave!!  Beware though, there's a big bottle of Figi water on your counter buy if you drink it you'll be charged $5.00 to your room MoreShow less</t>
+  </si>
+  <si>
+    <t>Their breakfast was delicious &amp; had a good variety to offer. The front desk staff was wonderful !!!! Will for sure be back!!!! The rooms are large &amp; very clean. Ours had a small refrigerator &amp; microwave!!  Beware though, there's a big bottle of Figi water on your counter buy if you drink it you'll be charged $5.00 to your room More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r306743178-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>306743178</t>
+  </si>
+  <si>
+    <t>09/03/2015</t>
+  </si>
+  <si>
+    <t>Dishonest Staff and Mangers that are not helpful</t>
+  </si>
+  <si>
+    <t>i have stayed at few HIE and have had good experiences Except for this hotel in Costa Mesa, California.i left a few times in the room upon checking out and then called the hotel to let them know i had left a few items in the room. they claimed they did not find the itemsone was visible on the TV stand but still claimed they did not find a thing..I feel the staff are dishonest no matter the value of someones items it is not right.DO NOT STAY THERE!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded September 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2015</t>
+  </si>
+  <si>
+    <t>i have stayed at few HIE and have had good experiences Except for this hotel in Costa Mesa, California.i left a few times in the room upon checking out and then called the hotel to let them know i had left a few items in the room. they claimed they did not find the itemsone was visible on the TV stand but still claimed they did not find a thing..I feel the staff are dishonest no matter the value of someones items it is not right.DO NOT STAY THERE!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r296975779-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>296975779</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>Roach yuck!</t>
+  </si>
+  <si>
+    <t>A big roach crawling on the white curtain! One of those 2-3 inches that fly! The staff said it wasn't common. ...I asked for another room,  they didn't offer any reimbursement, even when l paid in average 220 dlls per night!  They changed us to another room until the next day......The rest of our stay was very uncomfortable, watching the curtains with the feeling that we would see more roaches......I wish l had taken a pic,  but those roaches are fast and we really were only worried about chasing it away, it ended up in the hallway maybe crawled into another room.....The free breakfast, we didn't even tried it after the disgusting incident. ....The bed in the first room (where the roach was) was uncomfortable, would sink, was uneven. ...the bed in second room was fine. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded August 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2015</t>
+  </si>
+  <si>
+    <t>A big roach crawling on the white curtain! One of those 2-3 inches that fly! The staff said it wasn't common. ...I asked for another room,  they didn't offer any reimbursement, even when l paid in average 220 dlls per night!  They changed us to another room until the next day......The rest of our stay was very uncomfortable, watching the curtains with the feeling that we would see more roaches......I wish l had taken a pic,  but those roaches are fast and we really were only worried about chasing it away, it ended up in the hallway maybe crawled into another room.....The free breakfast, we didn't even tried it after the disgusting incident. ....The bed in the first room (where the roach was) was uncomfortable, would sink, was uneven. ...the bed in second room was fine. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r295018460-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>295018460</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>comfortable🛀</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel that is quite affordable. The rooms  are clean and comfortable beds. Although this may not be a five star hotel it is well maintained and has a nice breakfast buffet. Check in was quite and friendly staff. It has a good location that is convenient when looking for a place to eat.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r272181630-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>272181630</t>
+  </si>
+  <si>
+    <t>05/15/2015</t>
+  </si>
+  <si>
+    <t>Nicely updated Hotel</t>
+  </si>
+  <si>
+    <t>Hotel has recently been updated, it was very nice inside.  Breakfast room was clean and organized - nice selection for breakfast.  We got upgraded to a top floor room that was very spacious and a great view.  Really enjoyed my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Eduardo D, General Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded May 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2015</t>
+  </si>
+  <si>
+    <t>Hotel has recently been updated, it was very nice inside.  Breakfast room was clean and organized - nice selection for breakfast.  We got upgraded to a top floor room that was very spacious and a great view.  Really enjoyed my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r265879481-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>265879481</t>
+  </si>
+  <si>
+    <t>04/15/2015</t>
+  </si>
+  <si>
+    <t>Great little spot for a few nights</t>
+  </si>
+  <si>
+    <t>Nice new hotel. Very clean. Our room was in tip top shape.  Perfect for a few days.  Close to highway. Easy to get to.  Close to beach. Can go to Huntington Beach and Balboa Island in a few minutes.  Shopping and food close by too.  Nice little neighborhood so we felt safe driving around.  Hotel staff was extremely friendly and accommodating.  We had a nice visit.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r263249656-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>263249656</t>
+  </si>
+  <si>
+    <t>04/02/2015</t>
+  </si>
+  <si>
+    <t>Very Nice, Very Clean, Friendly Staff !</t>
+  </si>
+  <si>
+    <t>We stayed here on or way to Knott's Berry Farms with our 14 and 11 yr old. I was a little nervous about the trailer park sitting  next door but the area was quiet and hotel staff were very helpful! We had a good night's sleep. Room had a fridge, beds comfortable, would definitely stay again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r257976254-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>257976254</t>
+  </si>
+  <si>
+    <t>03/06/2015</t>
+  </si>
+  <si>
+    <t>OK for a night</t>
+  </si>
+  <si>
+    <t>Stayed for a night whilst exploring the area. It was OK the rooms were nothing special but acceptable and clean. Free breakfast was OK as was the WiFi.  Absolutely no issues from the neighbours but we did hear a fair bit of noise from the hotel car park and driveway to the side of the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded March 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2015</t>
+  </si>
+  <si>
+    <t>Stayed for a night whilst exploring the area. It was OK the rooms were nothing special but acceptable and clean. Free breakfast was OK as was the WiFi.  Absolutely no issues from the neighbours but we did hear a fair bit of noise from the hotel car park and driveway to the side of the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r251303323-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>251303323</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>Very clean and attractive. Guest laundry was a real plus. ALL employees have gone above and beyond the call of duty to help with my stay. This hotel is the best of the best. Thank you so very much. I've had family in the hospital for surgery then released and staying here with me with daily home health nursing visits. Maids are wonderful working around our schedule. Front desk is fantastic with extending my stays and making sure I don't have to change rooms. Fabulous people.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r247236396-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>247236396</t>
+  </si>
+  <si>
+    <t>01/03/2015</t>
+  </si>
+  <si>
+    <t>Great value for families</t>
+  </si>
+  <si>
+    <t>This hotel offers good bed and breakfast services, has a warm and welcoming staff, it is very clean and has many good restaurants within walking distance as well as driving distance.The limited public transport system in Costa Mesa makes having a car a necessity and the hotel has excellent parking facility.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r245820210-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>245820210</t>
+  </si>
+  <si>
+    <t>12/25/2014</t>
+  </si>
+  <si>
+    <t>Relaxing stay to end our vacation</t>
+  </si>
+  <si>
+    <t>My family and I stayed here because of its proximity to John Wayne Airport and the beach.  It was our last night of 7 after visiting Disneyland and going skiing at Mountain High, so we were thrilled that the hotel was clean and comfortable.  I was even able to get checked in before noon, which was an added bonus!Hotel was just a short drive to Newport Beach and the airport, so the location was great!  We would definitely stay here again if we return to the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r241033772-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>241033772</t>
+  </si>
+  <si>
+    <t>11/22/2014</t>
+  </si>
+  <si>
+    <t>Clean place, friendly staff</t>
+  </si>
+  <si>
+    <t>Excellent service and very clean, large and modern rooms. The beds were very comfortable too. Located on a very busy road, but close to all amenities. The pool around back is nice for a nighttime swim :) the staff were very friendly and helpful. Overall a good place to stay.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r238203263-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>238203263</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t>Just didn't like the location</t>
+  </si>
+  <si>
+    <t>I read the reviews before I booked and they were great.  I have to say that the service was excellent.  The lobby was very nice and even the rooms were nice with the exception of the small tear in the carpet between the sleeping area and the bathroom.  However, I just couldn't get past the location.  There is a trailer park right next to the hotel and a highway right across from it which I could hear traffic during the night and early morning.  The parking lot was in the garage under the hotel and you couldn't get into the hotel lobby without walking around the hotel unless you had a room key.  I checked in after dark, so I didn't care for that.
+The lady at the front desk said the area was safe.  When I travel, I like to be able to walk to get coffee or whatever and I just didn't feel comfortable doing that.  There are very few chain hotels around the area and none within walking distance.  Then of course there was the homeless guy holding a sign just a few blocks from the hotel by the freeway entrance.
+I prefer the Holiday Inn on S. Grande.  It is a little more expensive, but I like the area better.
+There was one other issue.  Since I didn't feel comfortable walking around and I was there for business, I had extra time in the morning.  However,...I read the reviews before I booked and they were great.  I have to say that the service was excellent.  The lobby was very nice and even the rooms were nice with the exception of the small tear in the carpet between the sleeping area and the bathroom.  However, I just couldn't get past the location.  There is a trailer park right next to the hotel and a highway right across from it which I could hear traffic during the night and early morning.  The parking lot was in the garage under the hotel and you couldn't get into the hotel lobby without walking around the hotel unless you had a room key.  I checked in after dark, so I didn't care for that.The lady at the front desk said the area was safe.  When I travel, I like to be able to walk to get coffee or whatever and I just didn't feel comfortable doing that.  There are very few chain hotels around the area and none within walking distance.  Then of course there was the homeless guy holding a sign just a few blocks from the hotel by the freeway entrance.I prefer the Holiday Inn on S. Grande.  It is a little more expensive, but I like the area better.There was one other issue.  Since I didn't feel comfortable walking around and I was there for business, I had extra time in the morning.  However, the internet access wasn't working and very slow when it was.  It took me an hour to get it fixed after calling their tollfree technical support and having their system rebooted.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded November 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2014</t>
+  </si>
+  <si>
+    <t>I read the reviews before I booked and they were great.  I have to say that the service was excellent.  The lobby was very nice and even the rooms were nice with the exception of the small tear in the carpet between the sleeping area and the bathroom.  However, I just couldn't get past the location.  There is a trailer park right next to the hotel and a highway right across from it which I could hear traffic during the night and early morning.  The parking lot was in the garage under the hotel and you couldn't get into the hotel lobby without walking around the hotel unless you had a room key.  I checked in after dark, so I didn't care for that.
+The lady at the front desk said the area was safe.  When I travel, I like to be able to walk to get coffee or whatever and I just didn't feel comfortable doing that.  There are very few chain hotels around the area and none within walking distance.  Then of course there was the homeless guy holding a sign just a few blocks from the hotel by the freeway entrance.
+I prefer the Holiday Inn on S. Grande.  It is a little more expensive, but I like the area better.
+There was one other issue.  Since I didn't feel comfortable walking around and I was there for business, I had extra time in the morning.  However,...I read the reviews before I booked and they were great.  I have to say that the service was excellent.  The lobby was very nice and even the rooms were nice with the exception of the small tear in the carpet between the sleeping area and the bathroom.  However, I just couldn't get past the location.  There is a trailer park right next to the hotel and a highway right across from it which I could hear traffic during the night and early morning.  The parking lot was in the garage under the hotel and you couldn't get into the hotel lobby without walking around the hotel unless you had a room key.  I checked in after dark, so I didn't care for that.The lady at the front desk said the area was safe.  When I travel, I like to be able to walk to get coffee or whatever and I just didn't feel comfortable doing that.  There are very few chain hotels around the area and none within walking distance.  Then of course there was the homeless guy holding a sign just a few blocks from the hotel by the freeway entrance.I prefer the Holiday Inn on S. Grande.  It is a little more expensive, but I like the area better.There was one other issue.  Since I didn't feel comfortable walking around and I was there for business, I had extra time in the morning.  However, the internet access wasn't working and very slow when it was.  It took me an hour to get it fixed after calling their tollfree technical support and having their system rebooted.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r235905469-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>235905469</t>
+  </si>
+  <si>
+    <t>10/23/2014</t>
+  </si>
+  <si>
+    <t>Best Holiday Inn Express Ever</t>
+  </si>
+  <si>
+    <t>We've stayed at many Holiday Inn Express locations, and this one is by far the best.  Great location near Newport Beach and reasonable prices - great breakfast and the whole place has been newly renovated.  Everything is top notch.The staff is the high point - Tyler and Cliff were just as nice and pleasant as could be and were very helpful in recommending restaurants, giving driving instructions, etc.Do yourself a favor and stay here when you are in this Orange County area.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r231065596-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>231065596</t>
+  </si>
+  <si>
+    <t>09/26/2014</t>
+  </si>
+  <si>
+    <t>Comfortable stay</t>
+  </si>
+  <si>
+    <t>I had a leak at my house and had to leave for a day while they worked on the plumbing. I booked a last minute reservation at this place as its close to my house. From the moment we walked in everyone was very friendly and attentive. The entire place was clean and the pool was a nice touch! I will definitely recommend this place whenever anyone needs to stay nearby!</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r230531189-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>230531189</t>
+  </si>
+  <si>
+    <t>09/23/2014</t>
+  </si>
+  <si>
+    <t>Newer Hotel Super Friendly Staff</t>
+  </si>
+  <si>
+    <t>I stayed for one night last weekend since I had to work an event at the fairgrounds.  It was a last minute trip so paid a little more than I wanted to.  BUT turned out to be worth it.  The hotel has clearly been updated very recently - cute little trendy lobby.  The room was bigger than most I have stayed in and the free breakfast was good.  Parking was a little tight but there was room.  But really the staff was what I remember most - everytime I came in contact with anyone they were so friendly.  Just walking in the lobby and they always said a friendly hello.  Had a nice conversation with Tyler whileI was checking in.  It just feels like everyone enjoys their job and it came through.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed for one night last weekend since I had to work an event at the fairgrounds.  It was a last minute trip so paid a little more than I wanted to.  BUT turned out to be worth it.  The hotel has clearly been updated very recently - cute little trendy lobby.  The room was bigger than most I have stayed in and the free breakfast was good.  Parking was a little tight but there was room.  But really the staff was what I remember most - everytime I came in contact with anyone they were so friendly.  Just walking in the lobby and they always said a friendly hello.  Had a nice conversation with Tyler whileI was checking in.  It just feels like everyone enjoys their job and it came through.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r229134681-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>229134681</t>
+  </si>
+  <si>
+    <t>09/15/2014</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>Very friendly and attentive service from check in to check out. The rooms are very well kept and very spacious. It was very convenient having a microwave and fridge in the room for my kids to store and heat snacks. I will definitely be staying here again!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r220967768-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>220967768</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near the beach </t>
+  </si>
+  <si>
+    <t>I stayed here with my friends because it's very close to the triangle square and the beach,I got an early check in Tyler was very nice with a big smile check in was fast and no hassle and was nice enough to call us a cab to go to Newport Beach which was like 18 something, when we got back another front desk person was there he was very friendly and helpful on giving us ideas for the night he recommended downtown Huntington Beach and instead of a cab he showed us how to use Uber a private taxi app which was fun they picked us up in a black SUV Huntington Beach was very packed with people and tons of bars. In the morning the breakfast was buffet style we took to our room. check out also no hassle all in all a very good night with friends MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here with my friends because it's very close to the triangle square and the beach,I got an early check in Tyler was very nice with a big smile check in was fast and no hassle and was nice enough to call us a cab to go to Newport Beach which was like 18 something, when we got back another front desk person was there he was very friendly and helpful on giving us ideas for the night he recommended downtown Huntington Beach and instead of a cab he showed us how to use Uber a private taxi app which was fun they picked us up in a black SUV Huntington Beach was very packed with people and tons of bars. In the morning the breakfast was buffet style we took to our room. check out also no hassle all in all a very good night with friends More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r218524756-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>218524756</t>
+  </si>
+  <si>
+    <t>07/30/2014</t>
+  </si>
+  <si>
+    <t>The best part was checking out of here</t>
+  </si>
+  <si>
+    <t>I can't even start this review with "you get what you pay for," because even that does not sum up how terrible this experience was. I stayed here for one day, and boy was that already too long. We decided on staying here because it is located conveniently off of the 55 freeway. My best friend had just turned 21, and we wanted to stay somewhere close to Newport and its bars. First off, I just want to say that for this one night stay, it was $220 plus tax. Not the cheapest, but again, it was convenient. Upon checking in and entering our hotel room, it was hot and smelled like mildew. We turned up the air conditioning, but it was still hot after 30 minutes. We made a complaint to the front desk who sent a maintenance guy to check out the system. The maintence guy took apart the AC and said that it "will be working in about an hour." We left to have dinner at Sharkeez by the pier. When we returned, the room was still hot. Another complaint was made, but this time we requested to switch rooms. Apparently, the hotel had no vacancy for that night. It was a weekend in July, not even a holiday (sounds like a lie to me). They gave us a fan to cool down our room for the night.. A FAN. We complained yet again.. and they gave...I can't even start this review with "you get what you pay for," because even that does not sum up how terrible this experience was. I stayed here for one day, and boy was that already too long. We decided on staying here because it is located conveniently off of the 55 freeway. My best friend had just turned 21, and we wanted to stay somewhere close to Newport and its bars. First off, I just want to say that for this one night stay, it was $220 plus tax. Not the cheapest, but again, it was convenient. Upon checking in and entering our hotel room, it was hot and smelled like mildew. We turned up the air conditioning, but it was still hot after 30 minutes. We made a complaint to the front desk who sent a maintenance guy to check out the system. The maintence guy took apart the AC and said that it "will be working in about an hour." We left to have dinner at Sharkeez by the pier. When we returned, the room was still hot. Another complaint was made, but this time we requested to switch rooms. Apparently, the hotel had no vacancy for that night. It was a weekend in July, not even a holiday (sounds like a lie to me). They gave us a fan to cool down our room for the night.. A FAN. We complained yet again.. and they gave us $40 off our room... OKAY, so our AC doesn't work, we have to sleep with a loud fan, and you are not going to comp our room?! Long story short, arguements between our party and the front desk continued for about an hour - with nothing accomplished. Someone in our party called nationals and put in a complaint ticket. The next morning on check out, we got one room comped.. we had THREE rooms. At $220 per night! They only comped one, and it probably wouldn't have happened if we didn't put up a fight. THIS HOTEL IS NOT WORTH IT! Also, this Holiday Inn won for best hotel in 2013... Who voted for this?! Do not stay here.. I repeat.. do not stay here! Find somewhere else. You have been warned.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded August 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2014</t>
+  </si>
+  <si>
+    <t>I can't even start this review with "you get what you pay for," because even that does not sum up how terrible this experience was. I stayed here for one day, and boy was that already too long. We decided on staying here because it is located conveniently off of the 55 freeway. My best friend had just turned 21, and we wanted to stay somewhere close to Newport and its bars. First off, I just want to say that for this one night stay, it was $220 plus tax. Not the cheapest, but again, it was convenient. Upon checking in and entering our hotel room, it was hot and smelled like mildew. We turned up the air conditioning, but it was still hot after 30 minutes. We made a complaint to the front desk who sent a maintenance guy to check out the system. The maintence guy took apart the AC and said that it "will be working in about an hour." We left to have dinner at Sharkeez by the pier. When we returned, the room was still hot. Another complaint was made, but this time we requested to switch rooms. Apparently, the hotel had no vacancy for that night. It was a weekend in July, not even a holiday (sounds like a lie to me). They gave us a fan to cool down our room for the night.. A FAN. We complained yet again.. and they gave...I can't even start this review with "you get what you pay for," because even that does not sum up how terrible this experience was. I stayed here for one day, and boy was that already too long. We decided on staying here because it is located conveniently off of the 55 freeway. My best friend had just turned 21, and we wanted to stay somewhere close to Newport and its bars. First off, I just want to say that for this one night stay, it was $220 plus tax. Not the cheapest, but again, it was convenient. Upon checking in and entering our hotel room, it was hot and smelled like mildew. We turned up the air conditioning, but it was still hot after 30 minutes. We made a complaint to the front desk who sent a maintenance guy to check out the system. The maintence guy took apart the AC and said that it "will be working in about an hour." We left to have dinner at Sharkeez by the pier. When we returned, the room was still hot. Another complaint was made, but this time we requested to switch rooms. Apparently, the hotel had no vacancy for that night. It was a weekend in July, not even a holiday (sounds like a lie to me). They gave us a fan to cool down our room for the night.. A FAN. We complained yet again.. and they gave us $40 off our room... OKAY, so our AC doesn't work, we have to sleep with a loud fan, and you are not going to comp our room?! Long story short, arguements between our party and the front desk continued for about an hour - with nothing accomplished. Someone in our party called nationals and put in a complaint ticket. The next morning on check out, we got one room comped.. we had THREE rooms. At $220 per night! They only comped one, and it probably wouldn't have happened if we didn't put up a fight. THIS HOTEL IS NOT WORTH IT! Also, this Holiday Inn won for best hotel in 2013... Who voted for this?! Do not stay here.. I repeat.. do not stay here! Find somewhere else. You have been warned.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r217119341-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>217119341</t>
+  </si>
+  <si>
+    <t>07/23/2014</t>
+  </si>
+  <si>
+    <t>Not The Best</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Holiday Inn Express in Costa Mesa after looking for a hotel near the Orange County Fair. I picked this hotel after looking online because it had the cheapest last minute rate which was pretty steep. The location is convenient for those going to Costa Mesa and Newport Beach as it's within a short drive. The room was nice and in good shape with the exception of the shower which gave me issues. Long story short it would take over 15 minutes of running (California is in a major drought) before it was even hot. The front desk also provided no real solution which sucked. Overall its a decent place to stay if you don't need hot water :P Although there are much better choices in the OC area. Pros:Free BreakfastWalking distance to Triangle SquareCons:Only Lukewarm water in the showerFront desk did not have a solution other than to leave it on for 15 minutesNo restaurant on siteMoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded August 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2014</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Holiday Inn Express in Costa Mesa after looking for a hotel near the Orange County Fair. I picked this hotel after looking online because it had the cheapest last minute rate which was pretty steep. The location is convenient for those going to Costa Mesa and Newport Beach as it's within a short drive. The room was nice and in good shape with the exception of the shower which gave me issues. Long story short it would take over 15 minutes of running (California is in a major drought) before it was even hot. The front desk also provided no real solution which sucked. Overall its a decent place to stay if you don't need hot water :P Although there are much better choices in the OC area. Pros:Free BreakfastWalking distance to Triangle SquareCons:Only Lukewarm water in the showerFront desk did not have a solution other than to leave it on for 15 minutesNo restaurant on siteMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r209558364-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>209558364</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>Small bathrooms, with comfy beds!</t>
+  </si>
+  <si>
+    <t>Honestly I didn't have a great feeling when I learned that my client booked me into a HIE, my previous stay at a Holiday Inn Express, left little to be desired. Upon arriving at the hotel I was created by one of the nicest front desk clerks in the industry. The clerk was so kind that when I walked in the musty smelling room I was very forgiving, and decided to give the air conditioner a chance, which works fine btw, but it is one of the floor units so it takes a wee bit longer to cool off the room but it works! I am staying in a room with a single king size bed, the room is a decent size, and bathroom like in so many hotels these days is small but the water pressure was excellent and there was plenty of hot water, a must for a tired traveler.  The king size bed was perfect, I can honestly say that the comfort of the bed makes one very forgiving.  As everyone who travels knows, a comfortable bed can make all the difference in the world.  There is no restaurant in the hotel, but you can find a variety of them down the street. For the traveler tired of eating out there is a grocery store down the street, the room has a microwave/refrigerator.  The hotel is only 6 minutes from the John Wayne Airport which is a...Honestly I didn't have a great feeling when I learned that my client booked me into a HIE, my previous stay at a Holiday Inn Express, left little to be desired. Upon arriving at the hotel I was created by one of the nicest front desk clerks in the industry. The clerk was so kind that when I walked in the musty smelling room I was very forgiving, and decided to give the air conditioner a chance, which works fine btw, but it is one of the floor units so it takes a wee bit longer to cool off the room but it works! I am staying in a room with a single king size bed, the room is a decent size, and bathroom like in so many hotels these days is small but the water pressure was excellent and there was plenty of hot water, a must for a tired traveler.  The king size bed was perfect, I can honestly say that the comfort of the bed makes one very forgiving.  As everyone who travels knows, a comfortable bed can make all the difference in the world.  There is no restaurant in the hotel, but you can find a variety of them down the street. For the traveler tired of eating out there is a grocery store down the street, the room has a microwave/refrigerator.  The hotel is only 6 minutes from the John Wayne Airport which is a major plus in my books (rumor has it they have a shuttle to the airport).  I can't review the free breakfast, since I had to leave the hotel early for the conference, the only item offered was a bowl of small muffins which didn't look overly appealing.  I would have loved to have had a gooey cinnamon roll as noted on their site. I doubt I would stay here again it is not a pet friendly hotel. Except for business the only reason I normally travel to the Huntington Beach area would be to visit the local dog beach with my pups.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded June 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2014</t>
+  </si>
+  <si>
+    <t>Honestly I didn't have a great feeling when I learned that my client booked me into a HIE, my previous stay at a Holiday Inn Express, left little to be desired. Upon arriving at the hotel I was created by one of the nicest front desk clerks in the industry. The clerk was so kind that when I walked in the musty smelling room I was very forgiving, and decided to give the air conditioner a chance, which works fine btw, but it is one of the floor units so it takes a wee bit longer to cool off the room but it works! I am staying in a room with a single king size bed, the room is a decent size, and bathroom like in so many hotels these days is small but the water pressure was excellent and there was plenty of hot water, a must for a tired traveler.  The king size bed was perfect, I can honestly say that the comfort of the bed makes one very forgiving.  As everyone who travels knows, a comfortable bed can make all the difference in the world.  There is no restaurant in the hotel, but you can find a variety of them down the street. For the traveler tired of eating out there is a grocery store down the street, the room has a microwave/refrigerator.  The hotel is only 6 minutes from the John Wayne Airport which is a...Honestly I didn't have a great feeling when I learned that my client booked me into a HIE, my previous stay at a Holiday Inn Express, left little to be desired. Upon arriving at the hotel I was created by one of the nicest front desk clerks in the industry. The clerk was so kind that when I walked in the musty smelling room I was very forgiving, and decided to give the air conditioner a chance, which works fine btw, but it is one of the floor units so it takes a wee bit longer to cool off the room but it works! I am staying in a room with a single king size bed, the room is a decent size, and bathroom like in so many hotels these days is small but the water pressure was excellent and there was plenty of hot water, a must for a tired traveler.  The king size bed was perfect, I can honestly say that the comfort of the bed makes one very forgiving.  As everyone who travels knows, a comfortable bed can make all the difference in the world.  There is no restaurant in the hotel, but you can find a variety of them down the street. For the traveler tired of eating out there is a grocery store down the street, the room has a microwave/refrigerator.  The hotel is only 6 minutes from the John Wayne Airport which is a major plus in my books (rumor has it they have a shuttle to the airport).  I can't review the free breakfast, since I had to leave the hotel early for the conference, the only item offered was a bowl of small muffins which didn't look overly appealing.  I would have loved to have had a gooey cinnamon roll as noted on their site. I doubt I would stay here again it is not a pet friendly hotel. Except for business the only reason I normally travel to the Huntington Beach area would be to visit the local dog beach with my pups.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r206243520-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>206243520</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>Perfect location when in Newport.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I love the holiday express inns as we don't stay in hotels for the breakfast, but this one is one of our favourites due to the great location. Close to a Starbucks and Newport Beach. The smell is only in the elevators and due to a natural spring. Great rooms and good wifi. Will definitely go back, this was our 2nd visit. Totally recommend. Yummy Mexican restaurant just down the road. </t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r205985303-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>205985303</t>
+  </si>
+  <si>
+    <t>05/17/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel with all the most current Holiday Inn Express features.  The carpeting in the hallway are brand new and different than anything I have ever seen in a HI Express.  The rooms are all spotless and the beds are comfortable.  In the room having the Directv is a great bonus.  Had about 120 channels to choose from which put it well above most in room entertainment.  There are a couple downsides however.  Parking at this hotel is quite simply a mess.  You have two choices, you can parallel park outside or shoehorn your car in the basement garage with spaces that never met a SUV.  Anything bigger than a Prius is going to have fun with these.  Second in the two times we have stayed here I have never seen more than one person working.  This can leave you waiting at the front a while if something comes up.Overall a good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Nice hotel with all the most current Holiday Inn Express features.  The carpeting in the hallway are brand new and different than anything I have ever seen in a HI Express.  The rooms are all spotless and the beds are comfortable.  In the room having the Directv is a great bonus.  Had about 120 channels to choose from which put it well above most in room entertainment.  There are a couple downsides however.  Parking at this hotel is quite simply a mess.  You have two choices, you can parallel park outside or shoehorn your car in the basement garage with spaces that never met a SUV.  Anything bigger than a Prius is going to have fun with these.  Second in the two times we have stayed here I have never seen more than one person working.  This can leave you waiting at the front a while if something comes up.Overall a good stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r204727384-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>204727384</t>
+  </si>
+  <si>
+    <t>05/08/2014</t>
+  </si>
+  <si>
+    <t>Nice quiet Hotel but bitten on charges</t>
+  </si>
+  <si>
+    <t>I booked this room on business because it was close to John Wayne Airport and not a bad drive to the company I was visiting.  The room was great, the bed comfortable and the staff very friendly and courteous.  However when I checked out I noticed that I was charged $50 a night more for my 2nd, 3rd and 4th night stay over the booking rate I signed for.  I stay exclusively at IHG hotels and book for business purpose at company rates and have never had my rate jacked on me before.  I'll have some explaining to do to my company about the charges.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded May 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2014</t>
+  </si>
+  <si>
+    <t>I booked this room on business because it was close to John Wayne Airport and not a bad drive to the company I was visiting.  The room was great, the bed comfortable and the staff very friendly and courteous.  However when I checked out I noticed that I was charged $50 a night more for my 2nd, 3rd and 4th night stay over the booking rate I signed for.  I stay exclusively at IHG hotels and book for business purpose at company rates and have never had my rate jacked on me before.  I'll have some explaining to do to my company about the charges.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r203972774-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>203972774</t>
+  </si>
+  <si>
+    <t>05/04/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the Fence about this place, not so great this time. </t>
+  </si>
+  <si>
+    <t>I stay in Costa Mesa often for business as it is close to John Wayne Airport (7 minutes).  Also close to Newport Beach for nice dinner options in evening.
+I've gone back and forth between Holiday Inn Express and Best Western.  Best Western has been consistently better, but always like the IHG points.  But again this place fell short of Best Western. 
+The place was clean and updated. House keeping and grounds keeping are impeccable!! 
+Main reasons for dissatisfaction were 1) the guy working the desk the evening was just not welcoming.  Maybe an off night for him (we all have those), but he is my second impression after walking up the building and seeing beautifully maintained grounds/ outside decor!!  Just not as good as last time/ not welcoming feeling.  2) all chairs in the room were uncomfortable.  The desk chair looked like the $30 desk chair you see at Walmart- cheap, flimsy, not comfy.  The main upholstered chair was a 90 degree backed, uncomfortable chair.  Maybe great for sitting on in a dining room or in an entry way while you put your shoes on, but nothing you want to sit in to relax and watch TV.  3) was the AC unit kicks out even though the room is still warm.  Called the desk and "that guy" at the front desk said its an energy saving thing.  I'm all for environmentally friendly, like turn it off when leaving the...I stay in Costa Mesa often for business as it is close to John Wayne Airport (7 minutes).  Also close to Newport Beach for nice dinner options in evening.I've gone back and forth between Holiday Inn Express and Best Western.  Best Western has been consistently better, but always like the IHG points.  But again this place fell short of Best Western. The place was clean and updated. House keeping and grounds keeping are impeccable!! Main reasons for dissatisfaction were 1) the guy working the desk the evening was just not welcoming.  Maybe an off night for him (we all have those), but he is my second impression after walking up the building and seeing beautifully maintained grounds/ outside decor!!  Just not as good as last time/ not welcoming feeling.  2) all chairs in the room were uncomfortable.  The desk chair looked like the $30 desk chair you see at Walmart- cheap, flimsy, not comfy.  The main upholstered chair was a 90 degree backed, uncomfortable chair.  Maybe great for sitting on in a dining room or in an entry way while you put your shoes on, but nothing you want to sit in to relax and watch TV.  3) was the AC unit kicks out even though the room is still warm.  Called the desk and "that guy" at the front desk said its an energy saving thing.  I'm all for environmentally friendly, like turn it off when leaving the room for a few hours, I was uncomfortably warm.  Also told the guy at the front desk that my window did not open, screen is busted blocking the window from opening at all.Last time I stayed here it was good, but I had nicer people and more comfy chair.I'm on the fence about coming back and trying again, or go back to the Best Western again????MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay in Costa Mesa often for business as it is close to John Wayne Airport (7 minutes).  Also close to Newport Beach for nice dinner options in evening.
+I've gone back and forth between Holiday Inn Express and Best Western.  Best Western has been consistently better, but always like the IHG points.  But again this place fell short of Best Western. 
+The place was clean and updated. House keeping and grounds keeping are impeccable!! 
+Main reasons for dissatisfaction were 1) the guy working the desk the evening was just not welcoming.  Maybe an off night for him (we all have those), but he is my second impression after walking up the building and seeing beautifully maintained grounds/ outside decor!!  Just not as good as last time/ not welcoming feeling.  2) all chairs in the room were uncomfortable.  The desk chair looked like the $30 desk chair you see at Walmart- cheap, flimsy, not comfy.  The main upholstered chair was a 90 degree backed, uncomfortable chair.  Maybe great for sitting on in a dining room or in an entry way while you put your shoes on, but nothing you want to sit in to relax and watch TV.  3) was the AC unit kicks out even though the room is still warm.  Called the desk and "that guy" at the front desk said its an energy saving thing.  I'm all for environmentally friendly, like turn it off when leaving the...I stay in Costa Mesa often for business as it is close to John Wayne Airport (7 minutes).  Also close to Newport Beach for nice dinner options in evening.I've gone back and forth between Holiday Inn Express and Best Western.  Best Western has been consistently better, but always like the IHG points.  But again this place fell short of Best Western. The place was clean and updated. House keeping and grounds keeping are impeccable!! Main reasons for dissatisfaction were 1) the guy working the desk the evening was just not welcoming.  Maybe an off night for him (we all have those), but he is my second impression after walking up the building and seeing beautifully maintained grounds/ outside decor!!  Just not as good as last time/ not welcoming feeling.  2) all chairs in the room were uncomfortable.  The desk chair looked like the $30 desk chair you see at Walmart- cheap, flimsy, not comfy.  The main upholstered chair was a 90 degree backed, uncomfortable chair.  Maybe great for sitting on in a dining room or in an entry way while you put your shoes on, but nothing you want to sit in to relax and watch TV.  3) was the AC unit kicks out even though the room is still warm.  Called the desk and "that guy" at the front desk said its an energy saving thing.  I'm all for environmentally friendly, like turn it off when leaving the room for a few hours, I was uncomfortably warm.  Also told the guy at the front desk that my window did not open, screen is busted blocking the window from opening at all.Last time I stayed here it was good, but I had nicer people and more comfy chair.I'm on the fence about coming back and trying again, or go back to the Best Western again????More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r202461705-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>202461705</t>
+  </si>
+  <si>
+    <t>04/23/2014</t>
+  </si>
+  <si>
+    <t>Well located but nothing special</t>
+  </si>
+  <si>
+    <t>Well located just seconds off the 55 Freeway.  Underground car park.  Room was clean and functional. Beds fine.  Breakfast was basic - I have had much better in similar budget hotels.  There is some road noise but it's not too intrusive.  Probably just about worth the money we paid - $115 a night for two of us.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Costa Mesa, responded to this reviewResponded May 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2014</t>
+  </si>
+  <si>
+    <t>Well located just seconds off the 55 Freeway.  Underground car park.  Room was clean and functional. Beds fine.  Breakfast was basic - I have had much better in similar budget hotels.  There is some road noise but it's not too intrusive.  Probably just about worth the money we paid - $115 a night for two of us.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2502,5302 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>77</v>
+      </c>
+      <c r="X6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
+        <v>116</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>117</v>
+      </c>
+      <c r="X10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" t="s">
+        <v>126</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>126</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>116</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>143</v>
+      </c>
+      <c r="O14" t="s">
+        <v>116</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>143</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" t="s">
+        <v>153</v>
+      </c>
+      <c r="L16" t="s">
+        <v>154</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" t="s">
+        <v>159</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>160</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>161</v>
+      </c>
+      <c r="X17" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>160</v>
+      </c>
+      <c r="O18" t="s">
+        <v>116</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>161</v>
+      </c>
+      <c r="X18" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>175</v>
+      </c>
+      <c r="X19" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>178</v>
+      </c>
+      <c r="J20" t="s">
+        <v>179</v>
+      </c>
+      <c r="K20" t="s">
+        <v>180</v>
+      </c>
+      <c r="L20" t="s">
+        <v>181</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>161</v>
+      </c>
+      <c r="X20" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>184</v>
+      </c>
+      <c r="J21" t="s">
+        <v>185</v>
+      </c>
+      <c r="K21" t="s">
+        <v>186</v>
+      </c>
+      <c r="L21" t="s">
+        <v>187</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>188</v>
+      </c>
+      <c r="O21" t="s">
+        <v>126</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>161</v>
+      </c>
+      <c r="X21" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>191</v>
+      </c>
+      <c r="J22" t="s">
+        <v>192</v>
+      </c>
+      <c r="K22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L22" t="s">
+        <v>194</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>195</v>
+      </c>
+      <c r="O22" t="s">
+        <v>116</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>161</v>
+      </c>
+      <c r="X22" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>197</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" t="s">
+        <v>199</v>
+      </c>
+      <c r="K23" t="s">
+        <v>200</v>
+      </c>
+      <c r="L23" t="s">
+        <v>201</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>202</v>
+      </c>
+      <c r="O23" t="s">
+        <v>116</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>204</v>
+      </c>
+      <c r="J24" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" t="s">
+        <v>206</v>
+      </c>
+      <c r="L24" t="s">
+        <v>207</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>202</v>
+      </c>
+      <c r="O24" t="s">
+        <v>116</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>209</v>
+      </c>
+      <c r="J25" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L25" t="s">
+        <v>212</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>202</v>
+      </c>
+      <c r="O25" t="s">
+        <v>116</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>214</v>
+      </c>
+      <c r="J26" t="s">
+        <v>215</v>
+      </c>
+      <c r="K26" t="s">
+        <v>216</v>
+      </c>
+      <c r="L26" t="s">
+        <v>217</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>218</v>
+      </c>
+      <c r="O26" t="s">
+        <v>116</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>219</v>
+      </c>
+      <c r="X26" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>222</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>223</v>
+      </c>
+      <c r="J27" t="s">
+        <v>224</v>
+      </c>
+      <c r="K27" t="s">
+        <v>225</v>
+      </c>
+      <c r="L27" t="s">
+        <v>226</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>227</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>228</v>
+      </c>
+      <c r="X27" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>231</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>232</v>
+      </c>
+      <c r="J28" t="s">
+        <v>233</v>
+      </c>
+      <c r="K28" t="s">
+        <v>234</v>
+      </c>
+      <c r="L28" t="s">
+        <v>235</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>227</v>
+      </c>
+      <c r="O28" t="s">
+        <v>126</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>228</v>
+      </c>
+      <c r="X28" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>237</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>238</v>
+      </c>
+      <c r="J29" t="s">
+        <v>239</v>
+      </c>
+      <c r="K29" t="s">
+        <v>240</v>
+      </c>
+      <c r="L29" t="s">
+        <v>241</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>195</v>
+      </c>
+      <c r="O29" t="s">
+        <v>116</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>242</v>
+      </c>
+      <c r="X29" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>245</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>246</v>
+      </c>
+      <c r="J30" t="s">
+        <v>247</v>
+      </c>
+      <c r="K30" t="s">
+        <v>248</v>
+      </c>
+      <c r="L30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>195</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>250</v>
+      </c>
+      <c r="X30" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>253</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>254</v>
+      </c>
+      <c r="J31" t="s">
+        <v>255</v>
+      </c>
+      <c r="K31" t="s">
+        <v>256</v>
+      </c>
+      <c r="L31" t="s">
+        <v>257</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>258</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>259</v>
+      </c>
+      <c r="X31" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>262</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>263</v>
+      </c>
+      <c r="J32" t="s">
+        <v>264</v>
+      </c>
+      <c r="K32" t="s">
+        <v>265</v>
+      </c>
+      <c r="L32" t="s">
+        <v>266</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>258</v>
+      </c>
+      <c r="O32" t="s">
+        <v>116</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>267</v>
+      </c>
+      <c r="X32" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>270</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>271</v>
+      </c>
+      <c r="J33" t="s">
+        <v>272</v>
+      </c>
+      <c r="K33" t="s">
+        <v>273</v>
+      </c>
+      <c r="L33" t="s">
+        <v>274</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>258</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>267</v>
+      </c>
+      <c r="X33" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>276</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>277</v>
+      </c>
+      <c r="J34" t="s">
+        <v>278</v>
+      </c>
+      <c r="K34" t="s">
+        <v>279</v>
+      </c>
+      <c r="L34" t="s">
+        <v>280</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>258</v>
+      </c>
+      <c r="O34" t="s">
+        <v>126</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>281</v>
+      </c>
+      <c r="X34" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>285</v>
+      </c>
+      <c r="J35" t="s">
+        <v>286</v>
+      </c>
+      <c r="K35" t="s">
+        <v>287</v>
+      </c>
+      <c r="L35" t="s">
+        <v>288</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>289</v>
+      </c>
+      <c r="O35" t="s">
+        <v>116</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>291</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>292</v>
+      </c>
+      <c r="J36" t="s">
+        <v>293</v>
+      </c>
+      <c r="K36" t="s">
+        <v>294</v>
+      </c>
+      <c r="L36" t="s">
+        <v>295</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>289</v>
+      </c>
+      <c r="O36" t="s">
+        <v>116</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>296</v>
+      </c>
+      <c r="X36" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>299</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>300</v>
+      </c>
+      <c r="J37" t="s">
+        <v>301</v>
+      </c>
+      <c r="K37" t="s">
+        <v>302</v>
+      </c>
+      <c r="L37" t="s">
+        <v>303</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>304</v>
+      </c>
+      <c r="O37" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>305</v>
+      </c>
+      <c r="X37" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>308</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>309</v>
+      </c>
+      <c r="J38" t="s">
+        <v>310</v>
+      </c>
+      <c r="K38" t="s">
+        <v>311</v>
+      </c>
+      <c r="L38" t="s">
+        <v>312</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>313</v>
+      </c>
+      <c r="O38" t="s">
+        <v>116</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>305</v>
+      </c>
+      <c r="X38" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>315</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>316</v>
+      </c>
+      <c r="J39" t="s">
+        <v>317</v>
+      </c>
+      <c r="K39" t="s">
+        <v>318</v>
+      </c>
+      <c r="L39" t="s">
+        <v>319</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>313</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>320</v>
+      </c>
+      <c r="X39" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>323</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>324</v>
+      </c>
+      <c r="J40" t="s">
+        <v>325</v>
+      </c>
+      <c r="K40" t="s">
+        <v>326</v>
+      </c>
+      <c r="L40" t="s">
+        <v>327</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>328</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>320</v>
+      </c>
+      <c r="X40" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>330</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>331</v>
+      </c>
+      <c r="J41" t="s">
+        <v>332</v>
+      </c>
+      <c r="K41" t="s">
+        <v>333</v>
+      </c>
+      <c r="L41" t="s">
+        <v>334</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>335</v>
+      </c>
+      <c r="O41" t="s">
+        <v>116</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>320</v>
+      </c>
+      <c r="X41" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>337</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>338</v>
+      </c>
+      <c r="J42" t="s">
+        <v>339</v>
+      </c>
+      <c r="K42" t="s">
+        <v>340</v>
+      </c>
+      <c r="L42" t="s">
+        <v>341</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>335</v>
+      </c>
+      <c r="O42" t="s">
+        <v>116</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>343</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>344</v>
+      </c>
+      <c r="J43" t="s">
+        <v>345</v>
+      </c>
+      <c r="K43" t="s">
+        <v>346</v>
+      </c>
+      <c r="L43" t="s">
+        <v>347</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>335</v>
+      </c>
+      <c r="O43" t="s">
+        <v>116</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>348</v>
+      </c>
+      <c r="X43" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>351</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>352</v>
+      </c>
+      <c r="J44" t="s">
+        <v>353</v>
+      </c>
+      <c r="K44" t="s">
+        <v>354</v>
+      </c>
+      <c r="L44" t="s">
+        <v>355</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>356</v>
+      </c>
+      <c r="O44" t="s">
+        <v>116</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>357</v>
+      </c>
+      <c r="X44" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>360</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>361</v>
+      </c>
+      <c r="J45" t="s">
+        <v>362</v>
+      </c>
+      <c r="K45" t="s">
+        <v>363</v>
+      </c>
+      <c r="L45" t="s">
+        <v>364</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>356</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>357</v>
+      </c>
+      <c r="X45" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>366</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>367</v>
+      </c>
+      <c r="J46" t="s">
+        <v>368</v>
+      </c>
+      <c r="K46" t="s">
+        <v>369</v>
+      </c>
+      <c r="L46" t="s">
+        <v>370</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>356</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>357</v>
+      </c>
+      <c r="X46" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>372</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>373</v>
+      </c>
+      <c r="J47" t="s">
+        <v>374</v>
+      </c>
+      <c r="K47" t="s">
+        <v>375</v>
+      </c>
+      <c r="L47" t="s">
+        <v>376</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>377</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>378</v>
+      </c>
+      <c r="X47" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>381</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>382</v>
+      </c>
+      <c r="J48" t="s">
+        <v>383</v>
+      </c>
+      <c r="K48" t="s">
+        <v>384</v>
+      </c>
+      <c r="L48" t="s">
+        <v>385</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>386</v>
+      </c>
+      <c r="O48" t="s">
+        <v>116</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>387</v>
+      </c>
+      <c r="X48" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>390</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>391</v>
+      </c>
+      <c r="J49" t="s">
+        <v>392</v>
+      </c>
+      <c r="K49" t="s">
+        <v>393</v>
+      </c>
+      <c r="L49" t="s">
+        <v>394</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>395</v>
+      </c>
+      <c r="X49" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>398</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>399</v>
+      </c>
+      <c r="J50" t="s">
+        <v>400</v>
+      </c>
+      <c r="K50" t="s">
+        <v>401</v>
+      </c>
+      <c r="L50" t="s">
+        <v>402</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>403</v>
+      </c>
+      <c r="O50" t="s">
+        <v>116</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>404</v>
+      </c>
+      <c r="X50" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>407</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>408</v>
+      </c>
+      <c r="J51" t="s">
+        <v>409</v>
+      </c>
+      <c r="K51" t="s">
+        <v>410</v>
+      </c>
+      <c r="L51" t="s">
+        <v>411</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>403</v>
+      </c>
+      <c r="O51" t="s">
+        <v>116</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>412</v>
+      </c>
+      <c r="X51" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>415</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>416</v>
+      </c>
+      <c r="J52" t="s">
+        <v>417</v>
+      </c>
+      <c r="K52" t="s">
+        <v>418</v>
+      </c>
+      <c r="L52" t="s">
+        <v>419</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>420</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>421</v>
+      </c>
+      <c r="X52" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>424</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>425</v>
+      </c>
+      <c r="J53" t="s">
+        <v>426</v>
+      </c>
+      <c r="K53" t="s">
+        <v>427</v>
+      </c>
+      <c r="L53" t="s">
+        <v>428</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>420</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>429</v>
+      </c>
+      <c r="X53" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>432</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>433</v>
+      </c>
+      <c r="J54" t="s">
+        <v>434</v>
+      </c>
+      <c r="K54" t="s">
+        <v>435</v>
+      </c>
+      <c r="L54" t="s">
+        <v>436</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>437</v>
+      </c>
+      <c r="O54" t="s">
+        <v>116</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>438</v>
+      </c>
+      <c r="X54" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>441</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>442</v>
+      </c>
+      <c r="J55" t="s">
+        <v>443</v>
+      </c>
+      <c r="K55" t="s">
+        <v>444</v>
+      </c>
+      <c r="L55" t="s">
+        <v>445</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>437</v>
+      </c>
+      <c r="O55" t="s">
+        <v>116</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>446</v>
+      </c>
+      <c r="X55" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>449</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>450</v>
+      </c>
+      <c r="J56" t="s">
+        <v>451</v>
+      </c>
+      <c r="K56" t="s">
+        <v>452</v>
+      </c>
+      <c r="L56" t="s">
+        <v>453</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>437</v>
+      </c>
+      <c r="O56" t="s">
+        <v>116</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>454</v>
+      </c>
+      <c r="X56" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>457</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>458</v>
+      </c>
+      <c r="J57" t="s">
+        <v>451</v>
+      </c>
+      <c r="K57" t="s">
+        <v>459</v>
+      </c>
+      <c r="L57" t="s">
+        <v>460</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>437</v>
+      </c>
+      <c r="O57" t="s">
+        <v>63</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>454</v>
+      </c>
+      <c r="X57" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>462</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>463</v>
+      </c>
+      <c r="J58" t="s">
+        <v>464</v>
+      </c>
+      <c r="K58" t="s">
+        <v>465</v>
+      </c>
+      <c r="L58" t="s">
+        <v>466</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>467</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>468</v>
+      </c>
+      <c r="X58" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>471</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>472</v>
+      </c>
+      <c r="J59" t="s">
+        <v>473</v>
+      </c>
+      <c r="K59" t="s">
+        <v>474</v>
+      </c>
+      <c r="L59" t="s">
+        <v>475</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>476</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>477</v>
+      </c>
+      <c r="X59" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>480</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>481</v>
+      </c>
+      <c r="J60" t="s">
+        <v>482</v>
+      </c>
+      <c r="K60" t="s">
+        <v>483</v>
+      </c>
+      <c r="L60" t="s">
+        <v>484</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>476</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>477</v>
+      </c>
+      <c r="X60" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>486</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>487</v>
+      </c>
+      <c r="J61" t="s">
+        <v>488</v>
+      </c>
+      <c r="K61" t="s">
+        <v>489</v>
+      </c>
+      <c r="L61" t="s">
+        <v>490</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>491</v>
+      </c>
+      <c r="O61" t="s">
+        <v>116</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>492</v>
+      </c>
+      <c r="X61" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>495</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>496</v>
+      </c>
+      <c r="J62" t="s">
+        <v>497</v>
+      </c>
+      <c r="K62" t="s">
+        <v>498</v>
+      </c>
+      <c r="L62" t="s">
+        <v>499</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>491</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>500</v>
+      </c>
+      <c r="X62" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>503</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>504</v>
+      </c>
+      <c r="J63" t="s">
+        <v>505</v>
+      </c>
+      <c r="K63" t="s">
+        <v>506</v>
+      </c>
+      <c r="L63" t="s">
+        <v>507</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>508</v>
+      </c>
+      <c r="O63" t="s">
+        <v>63</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>509</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>510</v>
+      </c>
+      <c r="J64" t="s">
+        <v>511</v>
+      </c>
+      <c r="K64" t="s">
+        <v>512</v>
+      </c>
+      <c r="L64" t="s">
+        <v>513</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>377</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>514</v>
+      </c>
+      <c r="X64" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>517</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>518</v>
+      </c>
+      <c r="J65" t="s">
+        <v>519</v>
+      </c>
+      <c r="K65" t="s">
+        <v>520</v>
+      </c>
+      <c r="L65" t="s">
+        <v>521</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>522</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>523</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>524</v>
+      </c>
+      <c r="J66" t="s">
+        <v>525</v>
+      </c>
+      <c r="K66" t="s">
+        <v>526</v>
+      </c>
+      <c r="L66" t="s">
+        <v>527</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>522</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>528</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>529</v>
+      </c>
+      <c r="J67" t="s">
+        <v>530</v>
+      </c>
+      <c r="K67" t="s">
+        <v>531</v>
+      </c>
+      <c r="L67" t="s">
+        <v>532</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>533</v>
+      </c>
+      <c r="O67" t="s">
+        <v>63</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>534</v>
+      </c>
+      <c r="X67" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>537</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>538</v>
+      </c>
+      <c r="J68" t="s">
+        <v>539</v>
+      </c>
+      <c r="K68" t="s">
+        <v>540</v>
+      </c>
+      <c r="L68" t="s">
+        <v>541</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>542</v>
+      </c>
+      <c r="O68" t="s">
+        <v>70</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>543</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>544</v>
+      </c>
+      <c r="J69" t="s">
+        <v>545</v>
+      </c>
+      <c r="K69" t="s">
+        <v>546</v>
+      </c>
+      <c r="L69" t="s">
+        <v>547</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>508</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>548</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>549</v>
+      </c>
+      <c r="J70" t="s">
+        <v>550</v>
+      </c>
+      <c r="K70" t="s">
+        <v>551</v>
+      </c>
+      <c r="L70" t="s">
+        <v>552</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>508</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>553</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>554</v>
+      </c>
+      <c r="J71" t="s">
+        <v>555</v>
+      </c>
+      <c r="K71" t="s">
+        <v>556</v>
+      </c>
+      <c r="L71" t="s">
+        <v>557</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>558</v>
+      </c>
+      <c r="O71" t="s">
+        <v>70</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>559</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>560</v>
+      </c>
+      <c r="J72" t="s">
+        <v>561</v>
+      </c>
+      <c r="K72" t="s">
+        <v>562</v>
+      </c>
+      <c r="L72" t="s">
+        <v>563</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>564</v>
+      </c>
+      <c r="O72" t="s">
+        <v>116</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1</v>
+      </c>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>565</v>
+      </c>
+      <c r="X72" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>568</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>569</v>
+      </c>
+      <c r="J73" t="s">
+        <v>570</v>
+      </c>
+      <c r="K73" t="s">
+        <v>571</v>
+      </c>
+      <c r="L73" t="s">
+        <v>572</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>573</v>
+      </c>
+      <c r="O73" t="s">
+        <v>70</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>574</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>575</v>
+      </c>
+      <c r="J74" t="s">
+        <v>576</v>
+      </c>
+      <c r="K74" t="s">
+        <v>577</v>
+      </c>
+      <c r="L74" t="s">
+        <v>578</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>579</v>
+      </c>
+      <c r="O74" t="s">
+        <v>126</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>580</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>581</v>
+      </c>
+      <c r="J75" t="s">
+        <v>582</v>
+      </c>
+      <c r="K75" t="s">
+        <v>583</v>
+      </c>
+      <c r="L75" t="s">
+        <v>584</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>579</v>
+      </c>
+      <c r="O75" t="s">
+        <v>116</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>586</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>587</v>
+      </c>
+      <c r="J76" t="s">
+        <v>588</v>
+      </c>
+      <c r="K76" t="s">
+        <v>589</v>
+      </c>
+      <c r="L76" t="s">
+        <v>590</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>591</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>592</v>
+      </c>
+      <c r="J77" t="s">
+        <v>593</v>
+      </c>
+      <c r="K77" t="s">
+        <v>594</v>
+      </c>
+      <c r="L77" t="s">
+        <v>595</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>558</v>
+      </c>
+      <c r="O77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>597</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>598</v>
+      </c>
+      <c r="J78" t="s">
+        <v>599</v>
+      </c>
+      <c r="K78" t="s">
+        <v>600</v>
+      </c>
+      <c r="L78" t="s">
+        <v>601</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>602</v>
+      </c>
+      <c r="O78" t="s">
+        <v>70</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>603</v>
+      </c>
+      <c r="X78" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>606</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>607</v>
+      </c>
+      <c r="J79" t="s">
+        <v>608</v>
+      </c>
+      <c r="K79" t="s">
+        <v>609</v>
+      </c>
+      <c r="L79" t="s">
+        <v>610</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>602</v>
+      </c>
+      <c r="O79" t="s">
+        <v>116</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>611</v>
+      </c>
+      <c r="X79" t="s">
+        <v>612</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>614</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>615</v>
+      </c>
+      <c r="J80" t="s">
+        <v>616</v>
+      </c>
+      <c r="K80" t="s">
+        <v>617</v>
+      </c>
+      <c r="L80" t="s">
+        <v>618</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>619</v>
+      </c>
+      <c r="O80" t="s">
+        <v>116</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>620</v>
+      </c>
+      <c r="X80" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>623</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>624</v>
+      </c>
+      <c r="J81" t="s">
+        <v>625</v>
+      </c>
+      <c r="K81" t="s">
+        <v>626</v>
+      </c>
+      <c r="L81" t="s">
+        <v>627</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>628</v>
+      </c>
+      <c r="O81" t="s">
+        <v>63</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>629</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>630</v>
+      </c>
+      <c r="J82" t="s">
+        <v>631</v>
+      </c>
+      <c r="K82" t="s">
+        <v>200</v>
+      </c>
+      <c r="L82" t="s">
+        <v>632</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>633</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>635</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>636</v>
+      </c>
+      <c r="J83" t="s">
+        <v>637</v>
+      </c>
+      <c r="K83" t="s">
+        <v>638</v>
+      </c>
+      <c r="L83" t="s">
+        <v>639</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>633</v>
+      </c>
+      <c r="O83" t="s">
+        <v>116</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>640</v>
+      </c>
+      <c r="X83" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>643</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>644</v>
+      </c>
+      <c r="J84" t="s">
+        <v>645</v>
+      </c>
+      <c r="K84" t="s">
+        <v>646</v>
+      </c>
+      <c r="L84" t="s">
+        <v>647</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>633</v>
+      </c>
+      <c r="O84" t="s">
+        <v>116</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>649</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>650</v>
+      </c>
+      <c r="J85" t="s">
+        <v>651</v>
+      </c>
+      <c r="K85" t="s">
+        <v>652</v>
+      </c>
+      <c r="L85" t="s">
+        <v>653</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>654</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>655</v>
+      </c>
+      <c r="X85" t="s">
+        <v>656</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>657</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_363.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_363.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="742">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Rip F</t>
+  </si>
+  <si>
     <t>07/04/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Checked in and was met by a young man who didn’t seem to know how to use the credit card machine. I am an IHG member (premier elite) and was told my IHG credit card was no good. I was forced to use another credit card that is not on file with IHG. We then parked in the garage and attempted to use the elevator, only to find it full of boxes and we were not able to fit in. After 10-15 minutes, the staff finally made room for us to fit beside the boxes so we did not have to take the stairs to the 3rd floor. Room was very nice and clean, but the old single pane windows make it very noisyMore</t>
   </si>
   <si>
+    <t>happytoberetired</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r587879895-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>We stayed here recently. The location is a short distance away from the expensive Newport Beach water front locations. Free under ground parking. but it’s tight and no tall vehicles. Small outside very tight parking. The room and hallways were fine. Everything was clean. They use a smelly deodorizer in the rooms, so if you are chemical sensitive. forget it.  Up hill to the check in. Up hill to the rooms. Up hill to breakfast.The breakfast room is on the 2nd floor amd locked. You need a room key to get in. Why? By having the door closed all the time, it’s claustrophobic. I opened the door twice and the workers here closed it twice. Breakfast is so-so. Also, it gets stuffy inside the small breakfast room if the door is shut, lack of AC?. This isn’t the best Holiday Inn Express we ever stayed at, but it will do for a night or two.More</t>
   </si>
   <si>
+    <t>babyb9999</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r585619424-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t>The lobby was nice, the staff was ver helpful, the room was nice and clean, the breakfast was yummy. I would return to this location again if in the area. I would also recommend this location to others.More</t>
   </si>
   <si>
+    <t>davidcorro15</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r581556953-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -258,6 +270,9 @@
     <t>Just wanted to say that jesus have me the best service i have ever received. Service with a smile super helpful and friendly. He made sure we were taken care of. Definitely will be back!!-David CorroMore</t>
   </si>
   <si>
+    <t>Allie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r581451270-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>We stayed here for 3 nights and it did exactly what we needed. It was a clean hotel. Safe area. Kevin checked us in and was great. We showed up about an hour before check in time and he was able to get us a room. The room was cleaned up and restocked each day. The breakfast is nothing to speak of, but it was free so we had just enough to hold us over until we could get out for food...and free coffee is always a plus. The room had a decent size fridge and coffee as well. We drove to Bolsa Chica/Huntington beach every day (takes 20-30 minutes depending on stop lights) but was a third of the price of staying on the beach. I would stay here again.More</t>
   </si>
   <si>
+    <t>Mazuza2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r581104387-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t>My wife and I stayed here one night. We were visiting the area as tourists.The front desk staff was very helpful and friendly. The parking is under the building. The room was airy and clean. There are no views to speak of. The breakfast room was surprisingly small. We had to wait a while to get a seat. The food was the standard HI breakfast.More</t>
   </si>
   <si>
+    <t>GSKarzen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r564622304-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -321,6 +342,9 @@
     <t>Room was clean.  Bed was OK. Room was ready early. The below window heat/air was old and loud.  Only stayed one night to see a play.  It was adequate for one night. Staff was friendly.  Near highway.  Stairs to get to elevator but they do have a handicapped ramp they can put down.  Slow elevator.  Should lower price based on area.  Free cookies at night was nice.  We missed breakfast.More</t>
   </si>
   <si>
+    <t>fairgirl59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r558689103-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -348,6 +372,9 @@
     <t>I used my Spire points to stay for two nights.  The customer service was the best I've experienced in a long time.  I was made to feel so welcome.Everything was in order and clean.  It's a long skinny hotel, with real estate along Newport Boulevard / Highway 55 being prime space.  There is NO parking for a moving truck or large vehicles.  The parking lot dead ends and does not go around the hotel.  The breakfast room is on the second floor; the fitness room on the third floor.  The business center is in the lobby and very nicely appointed.  There is coffee 24/7 in the lobby.More</t>
   </si>
   <si>
+    <t>Richard U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r556203134-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -378,6 +405,9 @@
     <t>Check-in was simple, room was clean, decent TV.  The staff was very friendly and helpful, especially Jesus.  He helped me with several recommendations in the area and was spot on with Amorelia!  The location is good, being near everything you could need.More</t>
   </si>
   <si>
+    <t>mrwright95001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r528741596-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -399,6 +429,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>MaxFanMac1890</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r528320602-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -414,6 +447,9 @@
     <t xml:space="preserve">Had a small emergency on a business trip and needed my own room quick, and the folks here took great care of me! The room was clean, AC worked awesome, I even needed a big favor upon check out and Andrew at the front desk really went the extra mile to make sure my needs (and my longboard!) were taken care of. I am a creature of habit, so I will definitely be staying this location again soon. Thank you guys so much, and if you're reading this still, STAY HERE! </t>
   </si>
   <si>
+    <t>BRTStark22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r524762392-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -432,6 +468,9 @@
     <t>Staff - 5 Location - 4 Hotel - 5Andrew checked me in. He was 100% professional and also fun/genuine. No canned message but just a real good person doing an outstanding job. This is the service that keeps me coming back. The location is so close to everything there is to do. I ran to Balboa Island in the morning and could have gone to a concert in Irvine if I wanted to. It's not 5 stars only because it was not on the ocean, but it was very easy to find. The hotel is new clean and it has a fun setup. I'll come back for sure. It's easy walking distance to many fun restaurants. More</t>
   </si>
   <si>
+    <t>Dalton K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r507267186-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -450,6 +489,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>percyvonlipinski</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r503326029-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -468,6 +510,9 @@
     <t>The locations is just far enough away to be easy to get to and from. Not too far not too close. The hotel is very clean and modern. Breakfast was pretty basic. Stop with the weird pre-made omlettes, downright scary. Check your garbage and you'll see most of them ended up there. I have on gripe with all these places. People go there on vacation, mostly with kids. What parent is able to get them up and seated by 9am cutoff. If it's to save money, think again. Most parents end up taking a bit of everything and bringing it to the room where most of it ends up in landfill. Just leave the place open till noon.More</t>
   </si>
   <si>
+    <t>qbsm0m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r500340376-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -483,6 +528,9 @@
     <t>Andrew, Leisha make this hotel !!! Their customer service is amazing. From the minute you check in Andrew takes care of all your needs. The kitchen staff is amazing and friendly. Andrew is the face of customer service!!!</t>
   </si>
   <si>
+    <t>NomadDad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r486415176-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -510,6 +558,9 @@
     <t>The Holiday Inn Express Costa Mesa is clean, quiet, good amenities (Keurigs in room, frig, microwave, pool, etc.), convenient to Newport Beach, and has an excellent staff.  Would definitely stay here again for the price.More</t>
   </si>
   <si>
+    <t>gwwyjjliu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r485773520-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -528,6 +579,9 @@
     <t>Simple in decor, furnishings and layout, the Holiday Inn is a good base for business in Costa Mesa or pleasure in nearby Newport Beach. Midway between John Wayne Airport and Newport Beach, it's well located although not much going on in the immediate neighborhood. You'll need a car to get around but there's free underground parking. Rooms are simple, clean, and comfortable. The new beds are a bit on the soft side. There's a bare bones fitness room and tiny outdoor pool. Self serve free breakfast is ample with eggs, breakfast meat, pancakes, and sinfully delicious cinnamon rolls. Friendly and helpful staff make for a pleasant stay. More</t>
   </si>
   <si>
+    <t>Dan R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r483379597-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -549,6 +603,9 @@
     <t>Booked short notice business trip with 2 night stay at this hotel. Arrived early but staff made extra effort to get a room ready for an early check in. Room, and breakfast area were clean. Jesus was very helpful when I arrived, as was the other gentleman working the desk in the daytime. Night time desk staff equally professional. Only down side is lack of a public seating area, the breakfast room is locked through the day. The only public work space is a medium size conference table very near the front desk, but the  staff happily accommodated my numerous meetings at the table through my stay. Would stay here again.More</t>
   </si>
   <si>
+    <t>Kiffany R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r478351303-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -567,6 +624,9 @@
     <t>I booked this hotel around midnight the night before our trip to Cali because the reviews and price were so great.  They were correct! The staff is all awesome. Jesus was just as great as all the reviews stated! All other staff were great too! I love that our standard room had a counter space with sink, fridge, coffee maker, cabinet space, and a microwave! The rooms are a good size as well.  The location is great.  We hit Laguna Beach and found great spots! (down from Diamond Street is so beautiful!!) Close to Newport/Balboa.  There are local restaurants near just down the road like Yard House, True Food, Baja Fresh plus many more.  Getting onto the freeway is cake! There's a grocery store just down the road and a liquor store too.  Will stay here again when in Cali.  Oh! Parking is FREE!!!!More</t>
   </si>
   <si>
+    <t>Ray D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r476661613-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -588,6 +648,9 @@
     <t>Jesus the receptionist is by far the best! Treats you like family! I would recommend this hotel! (: The hotel is super clean &amp; they leave you an extra towel for emergencies! I'll be coming back for a trip here again! More</t>
   </si>
   <si>
+    <t>Eulalia_3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r471754356-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -609,6 +672,9 @@
     <t>I had a very nice stay at this property.The layout and design is a bit funky/non traditional, but they make it work for the space that they have.I stayed here November of 2016 -- there was some construction goii on .. but it was fine.Jesus at the desk was wonderful, accommodating .... a pleasure to deal with.The lobby (small) appeared to be newly renovated.There was a convenient parking garage under the hotel.The a/c-heat unit wired well.There was large mini fridge with freezer compartment and micro in my room.The continental breakfast area was in the second floor.Again ... they made the best use of the space that they had to work wtih.There was no smell in my room.I would stay here again!: -)More</t>
   </si>
   <si>
+    <t>rpeck21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r469880909-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -627,6 +693,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>kimhelm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r469478344-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -642,6 +711,9 @@
     <t xml:space="preserve">The only problem I had here was the ability to hear people in the other rooms, both above and beside me. The walls seemed paper thin and I couldn't understand how with carpeted floors, the noise above was so loud. Maybe suggest the top floor! That was a bit of a bother, but it is a nice hotel with a nice staff and covered parking. </t>
   </si>
   <si>
+    <t>rsashton</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r468965633-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -657,6 +729,9 @@
     <t>I had an awesome experience from start to finish.  The staff is extremely pleasant and Andrew at the front desk was very helpful and had a fantastic attitude.  I will definitely book this place again when I'm back in the area!</t>
   </si>
   <si>
+    <t>David D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r453367087-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -684,6 +759,9 @@
     <t>All in all I had a nice stay.  My room was nice and clean and actually smelled good when I checked in.  The location worked out well for me as I was able to walk to some good spots to eat in the area and I enjoyed running through some of the neighborhoods behind the hotel.  My only areas of concern were that the nightstand drawer would open by itself and I ended up hitting it one time when getting out of bed and the "office" chair they put in the room was extremely uncomfortable and provided no support.  The breakfast that was included was nice as well, I enjoyed the fact they had gravy both mornings and the eggs were cooked well both times.  All in all it was a pleasant stay.More</t>
   </si>
   <si>
+    <t>RrosesWA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r452014536-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -711,6 +789,9 @@
     <t>We started our vacation staying at this hotel because of the location to our family reunion and Disneyland. It was a nice hotel- very quiet and clean. There was some construction/painting going on during our visit but it wasn't disruptive like often times. The only complaint is that i think the maid may have pushed a button on the TV that caused it to come on while we were out. It was kind of scary to come back to our room rather late at night and hear the loud TV coming from our room- then it came back on at 4 am while we were sleeping. Other than that we enjoyed our 3 nights here.More</t>
   </si>
   <si>
+    <t>Ann H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r449917122-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -729,6 +810,9 @@
     <t>I arrived in the night, and was surprised to open curtain seeing all small houses/trailers surrounding in the morning. No way I can take a walk around the hotel.The breakfast is pretty good, varies of  yogurts and fruit, egg, sausage, muffin, biscuit.For me it is just one night stay.More</t>
   </si>
   <si>
+    <t>c8615</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r442606374-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -753,6 +837,9 @@
     <t>Larger than average rooms with spacious bathrooms. Clean rooms. Comfortable bed. Staff was helpful and always had a smile on their faces. Convenient location. I was a short drive from the airport, Newport Beach and South Coast Plaza. Enjoyed the complimentary breakfast. Wi fi was fantastic, which was helpful as I was here on business. Great choice compared to the other questionable options nearby.More</t>
   </si>
   <si>
+    <t>Phillip A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r437932178-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -777,6 +864,9 @@
     <t>Hotel was nice and clean. Jesus the desk clerk was exceptional, friendly, cordial and  very helpful.  Room was  big enough for sure.  Breakfast had a lot of different things, so was great.  Only negative was the room above had a little kid or two running back and forth.  We'd go again, but ask for a 3rd floor room.More</t>
   </si>
   <si>
+    <t>Renny R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r429283051-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -804,6 +894,9 @@
     <t>H I Express has become our favorite hotel chain because we always (including this trip)receive those amenities we've learned to expect. This, even though the whole first floor was under going renovation and a pipe broke, causing the water to be shut off.More</t>
   </si>
   <si>
+    <t>jackiesue0809</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r420462089-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -828,6 +921,9 @@
     <t>Staff at the hotel were extremely friendly and helpful. The rooms were nice, comfortable, and most importantly clean. The hotel was located in a good area for our traveling purposes--OC Fair and Expo center and dinner. Breakfast was also good.More</t>
   </si>
   <si>
+    <t>randygi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r418833322-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -846,6 +942,9 @@
     <t>We enjoyed The Holliday Inn Express Costa Mesa, the front desk staff, Carmen made sure our breakfast was ready and very tasty! Our room was large and clean. Parking was easy and free, wifi was good, in all we were very happy.More</t>
   </si>
   <si>
+    <t>Bruce C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r417735956-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -870,6 +969,9 @@
     <t>Arrived late but room was ready and clean. Hotel convenient location to beach and several Orange County attractions. Room deodorizer used by housecleaning staff was a bit odd smelling but was easily dispersed when air conditioning was used. Accidentally left behind a phone charger in the room on departure but hotel staff unable to locate. Not sure who really has it now. Breakfast staff was helpful (Carmen). Would recommend that hotel management provide newspapers for use by guests in breakfast area. More</t>
   </si>
   <si>
+    <t>Steve L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r410742376-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -891,6 +993,9 @@
     <t>This HI-Express is completely renovated in the lobby and hallways.  They have free underground parking, free wifi, free breakfast, and Michael at the front desk is friendly and helpful.  The rooms are clean and large and have plugs near the bed and on the desk for all my chargers.If you're the type of person who needs to sleep in complete silence, this HI-Express is near enough a major road that you may hear traffic, so I wouldn't recommend it.  I love the location because I can walk to the Yard House or Skosh Monahans for a beer and a meal.  I also love the proximity to the other city attractions and access to the I-405 and I-5 highways.I will definitely stay here again.More</t>
   </si>
   <si>
+    <t>hippiechicklette</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r409626396-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -915,6 +1020,9 @@
     <t>We hold our quarterly meetings at this hotel. The staff is friendly and accommodating and the hotel is tidy. The rooms are clean and comfortable and house a refrigerator, microwave, and Keurig machine. The location is a bit funky but there are plenty of places to shop and eat nearby.  Underground parking is free and easily accessible.  For our needs, the meeting room is not in an ideal location. It sits on the third floor next to and adjacent to guest rooms. At times, we heard guests talking and doors opening and closing to guest rooms, along with children running up and down the halls, so these were a distraction, even with the meeting room door closed.  The nearest restroom is on the lobby floor, so it was a bit inconvenient at times. The hotel offers a complimentary continental breakfast on the 2nd floor and provide the usual breakfast items. It is a rather small room, so if the hotel was crowded, the space would be cramped.  But in all fairness, this is a smaller hotel.More</t>
   </si>
   <si>
+    <t>Lela429</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r398854898-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -942,6 +1050,9 @@
     <t>Stayed here after a trip to OC Fair, it is parellel to the 55fwy kind of a strange location. Check in was smooth, our room was on 1st flr. The hotel was filled up with a girls softball team so there were a lot of kids running around. Our room was clean, seemed a little older furniture but worked. There was a flat screen, a sink, kuerig machine, microwave and small fridge. We had a couch and desk in room. Parking is real tight. There is an underground parking but if you have a big truck like us you have to park next to building, very tight area. There is a pool, looked nice. There is free breakfast but missed it, was only til 930 am on weekends. Check out is at noon which was nice.  Staff was pleasant. Over all good stay, nothing special. Did not find a lot of eating places around hotel. The a/c worked great. I thought the price was too high. $200More</t>
   </si>
   <si>
+    <t>dlfg63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r389575388-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -963,6 +1074,9 @@
     <t>I had a great stay here, and I especially want to recognize front desk attendant Jesse. I arrived having just discovered a small problem with my reservation owing to a glitch in the online reservations system. As I was explaining the problem to Jesse, another guest came up to the desk to let him know the elevator wasn't working, and then, not three minutes later, yet another guest came up to let him know about a flooding problem in the parking garage. Jesse was extremely empathetic and professional. He got to work on all three problems immediately and had them all resolved in less than 24 hours. He also very helpfully made change for me a little later during my stay. The housekeeping staff also did an excellent job. The three women I interacted with were all very friendly, and my room and all the common areas I saw were immaculate. I would stay at this hotel again in a heartbeat.More</t>
   </si>
   <si>
+    <t>Clint F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r381660067-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -987,6 +1101,9 @@
     <t>Tyler in the front office could not have been any more nice or helpful. The place was clean they let us have early check in. We will definitely stay here again! The pool was great and so was the breakfast!I want to write a good review for this place but it's making me use 200 characters so we like this place very very very very very very very very very very very very very very very very very very very very very very very very muchMore</t>
   </si>
   <si>
+    <t>happyk8e</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r381406115-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1008,6 +1125,9 @@
     <t>I know isn't a "5 star" hotel with room service and a concierge, but the service is excellent and the rooms are immaculate.  We have stayed there over 20 times in the last decade and they have always been great.  I would recommend a room with a soaking tub, so relaxing!  More</t>
   </si>
   <si>
+    <t>lkh4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r376105315-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1029,6 +1149,9 @@
     <t>Very much enjoyed our stay and especially the breakfast service.  Maria Sanchez does a great job and making sure the breakfast is tasty and fresh.  The hotel was clean and pleasant.  Beds are comfortable.More</t>
   </si>
   <si>
+    <t>IATA-TRAVELER-NL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r372815528-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1047,6 +1170,9 @@
     <t>This is a recent update Holiday Inn hotel, if you need a overnight near Los Angeles, It is also a good place, to a day trip out of sight seeing Los Angeles or the coast area. The staff is very friendly at the check in and there is parking garage under the property and around the place. We did stay at 3e floor at a nice and clean new updated 2 queens room (525), the property have no restaurant around but there are many restaurants in the area so we did eat at a Outback one mile away, there is free internet for IHG members, so we think good value/prize.More</t>
   </si>
   <si>
+    <t>Jaymie G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r371553957-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1071,6 +1197,9 @@
     <t>We recently stayed here for a conference and had a great stay. The room was clean and spacious. Beds were comfy and the bathroom was clean and nice. There was a large variety for breakfast and it was relatively tasty. The only complaint is the small availability of parking spaces. We had 16 people in our group and thankfully took 3 vehicles. If we had taken any more than that there wouldn't have been sufficient parking. Other than that, it was wonderful! We will definitely be back.More</t>
   </si>
   <si>
+    <t>L W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r365269285-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1098,6 +1227,9 @@
     <t>I always stay in this hotel when im around the area, which means im in this hotel every month due to work.First and foremost i would to commend the staff from morning to evening shift  (Tyler, Jesse &amp; Donnette) they are all very special, professional and friendly. They are the corpse of the success of the hotel. They always say, In every success of a company there are great people behind it. They are really very attentive to your needs. They brings stuff to your room without complain. Housekeepers are all friendly and helpful.You will feel at home and safe in this hotel. The rooms are clean and very conducive to sleep. The bed and pillows are perfect. I love their shower head it gives you that massage feeling when you adjust it to a certain level. breakfast is free. They have a gym as well. Overall, great hotel and great staff with exceptional customer service!!!More</t>
   </si>
   <si>
+    <t>lew w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r364969656-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1116,6 +1248,9 @@
     <t>Close to everything...Beach, Freeway access, movie theater, shops, etc. Parking was so full people were parking in areas that weren't marked as spaces. Stairs at many of the entrances so not easy to get to the elevator. But, room was clean. Person above us wasn't very quiet but that isn't the fault of the motel.More</t>
   </si>
   <si>
+    <t>Jeff W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r364232832-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1134,6 +1269,9 @@
     <t>During our stay, we had a pleasant experience, in particular we were delighted with Efren, our breakfast host. Every item on the menu was fully stocked - always!  He also made sure the breakfast room was clean and appealing. Thanks, Efren - great job!Bill JensenMore</t>
   </si>
   <si>
+    <t>Simone Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r345684832-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1161,6 +1299,9 @@
     <t>A hotel with reasonable prices, but average services. I had to to business for a few weeks and I should have considered the lack of a laundry service and a restaurant.Anyway, you can use the onsite laundry, when it works, and order food for delivery.More</t>
   </si>
   <si>
+    <t>EnjoyTravelAlways</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r344199714-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1188,6 +1329,9 @@
     <t>My guess would be that this is either a hotel that was renovated or they had an odd piece of land onto which to place it so the lay out is just different.  The lobby is the lobby.  It's wheelchair accessible to the elevators with the use of a wheelchair list, meaning other will have to carry their bags up a few stairs.  The breakfast room is on the second floor.  There are several turns off the elevator to get to the main hall.  (They do need to not block open the fire doors even though it makes it easier to navigate the labyrinth.)  All this said, the room was fine except for the fact that the windows were single pane so the noise from the service road and highway was significant.  I slept well and the rooms are clean.More</t>
   </si>
   <si>
+    <t>BigRu510</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r340824188-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1212,6 +1356,9 @@
     <t>I stayed here for one night and it was quite a nice place. The front desk people were very friendly and very helpful with giving me places to eat that are near as well as directions. They also got me a taxi to show up when I needed it and very fast with room requests. The room itself was very nice and I was surprised at how nice it actually was. The only downside to this hotel for me was that I could hear the next room very clearly but I was really only there a little while as I was out most of the time. They do not have shuttles to the airport either so be aware of that as a taxi van cost me $17 to get there. Over all a good place to stay with plenty of places to eat as well as clubs near by.More</t>
   </si>
   <si>
+    <t>Marion G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r334118908-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1239,6 +1386,9 @@
     <t>Stayed here on business in Costa Mesa.  This hotel was ok, but a little less than what I typically have come to expect in HI Express.  Pros:  - I had a room in the inner part of the hotel, so it was fairly quiet; - Clean, comfortable room; Cons:  - Not a good location...on an access road right on the freeway, in a questionable neighborhood; - Small, compact lobby without the typical breakfast buffet layout;More</t>
   </si>
   <si>
+    <t>littlemtn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r331731866-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1263,6 +1413,9 @@
     <t>First, the hotel is obviously a converted Quality Inn or Motel 6. The layout is horrible. First you can't park your car and check in, theres no space for you car. Then the checkin area is small and there are steps to drag you bag up to get to the elevator. The breakfast area is in an old room and is tiny and cramped. You cant sit without breathing on your neighbor and don't try to get up and move about because the tables are so close you might get stuck. Good luck finding it because it's on the second floor tucked away. If you want to workout, again its in a small former room and its on the third floor. The rooms appear at first to be decent then you see how the carpet is pulled away from the tile and of course they have those little tiny bars if soap...smaller than the ones you throw away at home. The topper is when i checked in they didn't have water (platinum elite amenity) and they couldn't be bothered to go down the street to the grocery store and get any. After three days they finally gave me a "special" bottle from their "pantry" and acted like i was so very lucky to get that. If you are a IGH elite member, don't expect acknowledgment....you are nothing more than a regular "guest" here. I was supposed to stay another week...First, the hotel is obviously a converted Quality Inn or Motel 6. The layout is horrible. First you can't park your car and check in, theres no space for you car. Then the checkin area is small and there are steps to drag you bag up to get to the elevator. The breakfast area is in an old room and is tiny and cramped. You cant sit without breathing on your neighbor and don't try to get up and move about because the tables are so close you might get stuck. Good luck finding it because it's on the second floor tucked away. If you want to workout, again its in a small former room and its on the third floor. The rooms appear at first to be decent then you see how the carpet is pulled away from the tile and of course they have those little tiny bars if soap...smaller than the ones you throw away at home. The topper is when i checked in they didn't have water (platinum elite amenity) and they couldn't be bothered to go down the street to the grocery store and get any. After three days they finally gave me a "special" bottle from their "pantry" and acted like i was so very lucky to get that. If you are a IGH elite member, don't expect acknowledgment....you are nothing more than a regular "guest" here. I was supposed to stay another week but i wont because this place falls far below even the modest standards of a Holiday Inn Express.  Don't waste your money here, there are much better values nearby.More</t>
   </si>
   <si>
+    <t>Janice O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r331335109-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1290,6 +1443,9 @@
     <t>I visited family the second week of November 2015 and stayed at this hotel using my priority rewards points for the first day of a 3 day weekend.  Upon my arrival, the staff was courteous and recognized me as a priority member and always greeted me with a smile.  When I had a problem, they were quick to resolve it.  Jessie was quite nice and very professional.  The location was perfect, only a few miles from family.  I'll be back next year.  You stick with what's good and this hotel is just that..good!  Thanks everyone,More</t>
   </si>
   <si>
+    <t>rlpmlp1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r327501771-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1314,6 +1470,9 @@
     <t>Room was very quiet and bedding was comfy.  Breakfast was very good with lots of options.  Hotel was close to our venue with many dining options nearby.  Hotel staff was pleasant and easy to work with.  Had a nice time.More</t>
   </si>
   <si>
+    <t>Kenneth B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r326249796-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1341,6 +1500,9 @@
     <t>My third visit to Holiday Inn Express Costa Mesa. Really nice staff and very helpful. Rooms are big and well maintained. Even you are close to a highway the room are quiet. The breakfast are not worthy to go for, typical Holiday Express type, could be way better. All in all a good value for the money.More</t>
   </si>
   <si>
+    <t>zainab m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r325854995-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1365,6 +1527,9 @@
     <t>My room was clean and so nice.  The bed was amazing, pillows soft, and I loved having a mini fridge and microwave. Also, it was very quiet.  The staff was friendly and honestly it lives up to the Holiday Inn experience.  I would definitely recommend for friends.More</t>
   </si>
   <si>
+    <t>224abc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r320761746-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1389,6 +1554,9 @@
     <t>I buy and sell collector cars, so I travel a lot. I needed a room in Costa Mesa one night recently, and I decided to stay at the Holiday Inn Express. My stay was quite pleasant. I used the Work Out Room there and it was well equipped and clean. One thing that impressed me was the cleanliness of the entire facility. It looked new. Parking in the underground garage was easy, and I felt that my truck was safe there. I'll be back.More</t>
   </si>
   <si>
+    <t>Lori P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r320720039-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1404,6 +1572,9 @@
     <t>We had a awesome stay the room was great, clean, nice bed to sleep in. The staff was very helpful. Breakfast was great. We will definitely stay here again. Great location close to where we needed to go. Thank you for a awesome stay.More</t>
   </si>
   <si>
+    <t>Jlizanox</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r320109342-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1431,6 +1602,9 @@
     <t>We stayed on our way to Kings Canyon, it was a nice stayed, friendly and helpful staff, room cleanness, parking area and breakfast was very nice, room was big, with enough space for us (4pax), microwave and small fridge was new and cleanMore</t>
   </si>
   <si>
+    <t>Mommylally</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r309099868-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1458,6 +1632,9 @@
     <t>Quiet, peaceful hotel, super-clean and remodelled, friendly and efficient staff, very clean, comfortable and spacious room, good breakfast, great new pool area, close to Newport Beach.  Hesitated to give this review as I suspect this hotel is a hidden gem.More</t>
   </si>
   <si>
+    <t>emybtravels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r307113324-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1476,6 +1653,9 @@
     <t>Their breakfast was delicious &amp; had a good variety to offer. The front desk staff was wonderful !!!! Will for sure be back!!!! The rooms are large &amp; very clean. Ours had a small refrigerator &amp; microwave!!  Beware though, there's a big bottle of Figi water on your counter buy if you drink it you'll be charged $5.00 to your room More</t>
   </si>
   <si>
+    <t>Robert N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r306743178-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1503,6 +1683,9 @@
     <t>i have stayed at few HIE and have had good experiences Except for this hotel in Costa Mesa, California.i left a few times in the room upon checking out and then called the hotel to let them know i had left a few items in the room. they claimed they did not find the itemsone was visible on the TV stand but still claimed they did not find a thing..I feel the staff are dishonest no matter the value of someones items it is not right.DO NOT STAY THERE!!More</t>
   </si>
   <si>
+    <t>Mark M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r296975779-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1527,6 +1710,9 @@
     <t>A big roach crawling on the white curtain! One of those 2-3 inches that fly! The staff said it wasn't common. ...I asked for another room,  they didn't offer any reimbursement, even when l paid in average 220 dlls per night!  They changed us to another room until the next day......The rest of our stay was very uncomfortable, watching the curtains with the feeling that we would see more roaches......I wish l had taken a pic,  but those roaches are fast and we really were only worried about chasing it away, it ended up in the hallway maybe crawled into another room.....The free breakfast, we didn't even tried it after the disgusting incident. ....The bed in the first room (where the roach was) was uncomfortable, would sink, was uneven. ...the bed in second room was fine. More</t>
   </si>
   <si>
+    <t>Mary R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r295018460-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1545,6 +1731,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>RNA1958</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r272181630-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1569,6 +1758,9 @@
     <t>Hotel has recently been updated, it was very nice inside.  Breakfast room was clean and organized - nice selection for breakfast.  We got upgraded to a top floor room that was very spacious and a great view.  Really enjoyed my stay.More</t>
   </si>
   <si>
+    <t>DSArchitect</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r265879481-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1587,6 +1779,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Nicki B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r263249656-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1602,6 +1797,9 @@
     <t>We stayed here on or way to Knott's Berry Farms with our 14 and 11 yr old. I was a little nervous about the trailer park sitting  next door but the area was quiet and hotel staff were very helpful! We had a good night's sleep. Room had a fridge, beds comfortable, would definitely stay again!</t>
   </si>
   <si>
+    <t>CharlotteStaffs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r257976254-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1629,6 +1827,9 @@
     <t>Stayed for a night whilst exploring the area. It was OK the rooms were nothing special but acceptable and clean. Free breakfast was OK as was the WiFi.  Absolutely no issues from the neighbours but we did hear a fair bit of noise from the hotel car park and driveway to the side of the hotel.More</t>
   </si>
   <si>
+    <t>Debi S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r251303323-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1647,6 +1848,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>lmm201595</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r247236396-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1662,6 +1866,9 @@
     <t>This hotel offers good bed and breakfast services, has a warm and welcoming staff, it is very clean and has many good restaurants within walking distance as well as driving distance.The limited public transport system in Costa Mesa makes having a car a necessity and the hotel has excellent parking facility.</t>
   </si>
   <si>
+    <t>Joshua R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r245820210-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1677,6 +1884,9 @@
     <t>My family and I stayed here because of its proximity to John Wayne Airport and the beach.  It was our last night of 7 after visiting Disneyland and going skiing at Mountain High, so we were thrilled that the hotel was clean and comfortable.  I was even able to get checked in before noon, which was an added bonus!Hotel was just a short drive to Newport Beach and the airport, so the location was great!  We would definitely stay here again if we return to the area.</t>
   </si>
   <si>
+    <t>sohnias</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r241033772-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1693,6 +1903,9 @@
   </si>
   <si>
     <t>August 2014</t>
+  </si>
+  <si>
+    <t>2CKGkids</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r238203263-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
@@ -1728,6 +1941,9 @@
 There was one other issue.  Since I didn't feel comfortable walking around and I was there for business, I had extra time in the morning.  However,...I read the reviews before I booked and they were great.  I have to say that the service was excellent.  The lobby was very nice and even the rooms were nice with the exception of the small tear in the carpet between the sleeping area and the bathroom.  However, I just couldn't get past the location.  There is a trailer park right next to the hotel and a highway right across from it which I could hear traffic during the night and early morning.  The parking lot was in the garage under the hotel and you couldn't get into the hotel lobby without walking around the hotel unless you had a room key.  I checked in after dark, so I didn't care for that.The lady at the front desk said the area was safe.  When I travel, I like to be able to walk to get coffee or whatever and I just didn't feel comfortable doing that.  There are very few chain hotels around the area and none within walking distance.  Then of course there was the homeless guy holding a sign just a few blocks from the hotel by the freeway entrance.I prefer the Holiday Inn on S. Grande.  It is a little more expensive, but I like the area better.There was one other issue.  Since I didn't feel comfortable walking around and I was there for business, I had extra time in the morning.  However, the internet access wasn't working and very slow when it was.  It took me an hour to get it fixed after calling their tollfree technical support and having their system rebooted.More</t>
   </si>
   <si>
+    <t>Discerningwon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r235905469-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1746,6 +1962,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Flor G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r231065596-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1764,6 +1983,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Janet B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r230531189-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1782,6 +2004,9 @@
     <t>I stayed for one night last weekend since I had to work an event at the fairgrounds.  It was a last minute trip so paid a little more than I wanted to.  BUT turned out to be worth it.  The hotel has clearly been updated very recently - cute little trendy lobby.  The room was bigger than most I have stayed in and the free breakfast was good.  Parking was a little tight but there was room.  But really the staff was what I remember most - everytime I came in contact with anyone they were so friendly.  Just walking in the lobby and they always said a friendly hello.  Had a nice conversation with Tyler whileI was checking in.  It just feels like everyone enjoys their job and it came through.More</t>
   </si>
   <si>
+    <t>Fuenteh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r229134681-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1797,6 +2022,9 @@
     <t>Very friendly and attentive service from check in to check out. The rooms are very well kept and very spacious. It was very convenient having a microwave and fridge in the room for my kids to store and heat snacks. I will definitely be staying here again!!</t>
   </si>
   <si>
+    <t>Kaysabio</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r220967768-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1815,6 +2043,9 @@
     <t>I stayed here with my friends because it's very close to the triangle square and the beach,I got an early check in Tyler was very nice with a big smile check in was fast and no hassle and was nice enough to call us a cab to go to Newport Beach which was like 18 something, when we got back another front desk person was there he was very friendly and helpful on giving us ideas for the night he recommended downtown Huntington Beach and instead of a cab he showed us how to use Uber a private taxi app which was fun they picked us up in a black SUV Huntington Beach was very packed with people and tons of bars. In the morning the breakfast was buffet style we took to our room. check out also no hassle all in all a very good night with friends More</t>
   </si>
   <si>
+    <t>Bridgitte N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r218524756-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1842,6 +2073,9 @@
     <t>I can't even start this review with "you get what you pay for," because even that does not sum up how terrible this experience was. I stayed here for one day, and boy was that already too long. We decided on staying here because it is located conveniently off of the 55 freeway. My best friend had just turned 21, and we wanted to stay somewhere close to Newport and its bars. First off, I just want to say that for this one night stay, it was $220 plus tax. Not the cheapest, but again, it was convenient. Upon checking in and entering our hotel room, it was hot and smelled like mildew. We turned up the air conditioning, but it was still hot after 30 minutes. We made a complaint to the front desk who sent a maintenance guy to check out the system. The maintence guy took apart the AC and said that it "will be working in about an hour." We left to have dinner at Sharkeez by the pier. When we returned, the room was still hot. Another complaint was made, but this time we requested to switch rooms. Apparently, the hotel had no vacancy for that night. It was a weekend in July, not even a holiday (sounds like a lie to me). They gave us a fan to cool down our room for the night.. A FAN. We complained yet again.. and they gave...I can't even start this review with "you get what you pay for," because even that does not sum up how terrible this experience was. I stayed here for one day, and boy was that already too long. We decided on staying here because it is located conveniently off of the 55 freeway. My best friend had just turned 21, and we wanted to stay somewhere close to Newport and its bars. First off, I just want to say that for this one night stay, it was $220 plus tax. Not the cheapest, but again, it was convenient. Upon checking in and entering our hotel room, it was hot and smelled like mildew. We turned up the air conditioning, but it was still hot after 30 minutes. We made a complaint to the front desk who sent a maintenance guy to check out the system. The maintence guy took apart the AC and said that it "will be working in about an hour." We left to have dinner at Sharkeez by the pier. When we returned, the room was still hot. Another complaint was made, but this time we requested to switch rooms. Apparently, the hotel had no vacancy for that night. It was a weekend in July, not even a holiday (sounds like a lie to me). They gave us a fan to cool down our room for the night.. A FAN. We complained yet again.. and they gave us $40 off our room... OKAY, so our AC doesn't work, we have to sleep with a loud fan, and you are not going to comp our room?! Long story short, arguements between our party and the front desk continued for about an hour - with nothing accomplished. Someone in our party called nationals and put in a complaint ticket. The next morning on check out, we got one room comped.. we had THREE rooms. At $220 per night! They only comped one, and it probably wouldn't have happened if we didn't put up a fight. THIS HOTEL IS NOT WORTH IT! Also, this Holiday Inn won for best hotel in 2013... Who voted for this?! Do not stay here.. I repeat.. do not stay here! Find somewhere else. You have been warned.More</t>
   </si>
   <si>
+    <t>Casey M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r217119341-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1866,6 +2100,9 @@
     <t>I recently stayed at the Holiday Inn Express in Costa Mesa after looking for a hotel near the Orange County Fair. I picked this hotel after looking online because it had the cheapest last minute rate which was pretty steep. The location is convenient for those going to Costa Mesa and Newport Beach as it's within a short drive. The room was nice and in good shape with the exception of the shower which gave me issues. Long story short it would take over 15 minutes of running (California is in a major drought) before it was even hot. The front desk also provided no real solution which sucked. Overall its a decent place to stay if you don't need hot water :P Although there are much better choices in the OC area. Pros:Free BreakfastWalking distance to Triangle SquareCons:Only Lukewarm water in the showerFront desk did not have a solution other than to leave it on for 15 minutesNo restaurant on siteMore</t>
   </si>
   <si>
+    <t>Michelle A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r209558364-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1893,6 +2130,9 @@
     <t>Honestly I didn't have a great feeling when I learned that my client booked me into a HIE, my previous stay at a Holiday Inn Express, left little to be desired. Upon arriving at the hotel I was created by one of the nicest front desk clerks in the industry. The clerk was so kind that when I walked in the musty smelling room I was very forgiving, and decided to give the air conditioner a chance, which works fine btw, but it is one of the floor units so it takes a wee bit longer to cool off the room but it works! I am staying in a room with a single king size bed, the room is a decent size, and bathroom like in so many hotels these days is small but the water pressure was excellent and there was plenty of hot water, a must for a tired traveler.  The king size bed was perfect, I can honestly say that the comfort of the bed makes one very forgiving.  As everyone who travels knows, a comfortable bed can make all the difference in the world.  There is no restaurant in the hotel, but you can find a variety of them down the street. For the traveler tired of eating out there is a grocery store down the street, the room has a microwave/refrigerator.  The hotel is only 6 minutes from the John Wayne Airport which is a...Honestly I didn't have a great feeling when I learned that my client booked me into a HIE, my previous stay at a Holiday Inn Express, left little to be desired. Upon arriving at the hotel I was created by one of the nicest front desk clerks in the industry. The clerk was so kind that when I walked in the musty smelling room I was very forgiving, and decided to give the air conditioner a chance, which works fine btw, but it is one of the floor units so it takes a wee bit longer to cool off the room but it works! I am staying in a room with a single king size bed, the room is a decent size, and bathroom like in so many hotels these days is small but the water pressure was excellent and there was plenty of hot water, a must for a tired traveler.  The king size bed was perfect, I can honestly say that the comfort of the bed makes one very forgiving.  As everyone who travels knows, a comfortable bed can make all the difference in the world.  There is no restaurant in the hotel, but you can find a variety of them down the street. For the traveler tired of eating out there is a grocery store down the street, the room has a microwave/refrigerator.  The hotel is only 6 minutes from the John Wayne Airport which is a major plus in my books (rumor has it they have a shuttle to the airport).  I can't review the free breakfast, since I had to leave the hotel early for the conference, the only item offered was a bowl of small muffins which didn't look overly appealing.  I would have loved to have had a gooey cinnamon roll as noted on their site. I doubt I would stay here again it is not a pet friendly hotel. Except for business the only reason I normally travel to the Huntington Beach area would be to visit the local dog beach with my pups.More</t>
   </si>
   <si>
+    <t>VICKIGGs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r206243520-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1911,6 +2151,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>DisneylandFamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r205985303-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1929,6 +2172,9 @@
     <t>Nice hotel with all the most current Holiday Inn Express features.  The carpeting in the hallway are brand new and different than anything I have ever seen in a HI Express.  The rooms are all spotless and the beds are comfortable.  In the room having the Directv is a great bonus.  Had about 120 channels to choose from which put it well above most in room entertainment.  There are a couple downsides however.  Parking at this hotel is quite simply a mess.  You have two choices, you can parallel park outside or shoehorn your car in the basement garage with spaces that never met a SUV.  Anything bigger than a Prius is going to have fun with these.  Second in the two times we have stayed here I have never seen more than one person working.  This can leave you waiting at the front a while if something comes up.Overall a good stay.More</t>
   </si>
   <si>
+    <t>Bryan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r204727384-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1951,6 +2197,9 @@
   </si>
   <si>
     <t>I booked this room on business because it was close to John Wayne Airport and not a bad drive to the company I was visiting.  The room was great, the bed comfortable and the staff very friendly and courteous.  However when I checked out I noticed that I was charged $50 a night more for my 2nd, 3rd and 4th night stay over the booking rate I signed for.  I stay exclusively at IHG hotels and book for business purpose at company rates and have never had my rate jacked on me before.  I'll have some explaining to do to my company about the charges.More</t>
+  </si>
+  <si>
+    <t>Jodie M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r203972774-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
@@ -1975,6 +2224,9 @@
 I've gone back and forth between Holiday Inn Express and Best Western.  Best Western has been consistently better, but always like the IHG points.  But again this place fell short of Best Western. 
 The place was clean and updated. House keeping and grounds keeping are impeccable!! 
 Main reasons for dissatisfaction were 1) the guy working the desk the evening was just not welcoming.  Maybe an off night for him (we all have those), but he is my second impression after walking up the building and seeing beautifully maintained grounds/ outside decor!!  Just not as good as last time/ not welcoming feeling.  2) all chairs in the room were uncomfortable.  The desk chair looked like the $30 desk chair you see at Walmart- cheap, flimsy, not comfy.  The main upholstered chair was a 90 degree backed, uncomfortable chair.  Maybe great for sitting on in a dining room or in an entry way while you put your shoes on, but nothing you want to sit in to relax and watch TV.  3) was the AC unit kicks out even though the room is still warm.  Called the desk and "that guy" at the front desk said its an energy saving thing.  I'm all for environmentally friendly, like turn it off when leaving the...I stay in Costa Mesa often for business as it is close to John Wayne Airport (7 minutes).  Also close to Newport Beach for nice dinner options in evening.I've gone back and forth between Holiday Inn Express and Best Western.  Best Western has been consistently better, but always like the IHG points.  But again this place fell short of Best Western. The place was clean and updated. House keeping and grounds keeping are impeccable!! Main reasons for dissatisfaction were 1) the guy working the desk the evening was just not welcoming.  Maybe an off night for him (we all have those), but he is my second impression after walking up the building and seeing beautifully maintained grounds/ outside decor!!  Just not as good as last time/ not welcoming feeling.  2) all chairs in the room were uncomfortable.  The desk chair looked like the $30 desk chair you see at Walmart- cheap, flimsy, not comfy.  The main upholstered chair was a 90 degree backed, uncomfortable chair.  Maybe great for sitting on in a dining room or in an entry way while you put your shoes on, but nothing you want to sit in to relax and watch TV.  3) was the AC unit kicks out even though the room is still warm.  Called the desk and "that guy" at the front desk said its an energy saving thing.  I'm all for environmentally friendly, like turn it off when leaving the room for a few hours, I was uncomfortably warm.  Also told the guy at the front desk that my window did not open, screen is busted blocking the window from opening at all.Last time I stayed here it was good, but I had nicer people and more comfy chair.I'm on the fence about coming back and trying again, or go back to the Best Western again????More</t>
+  </si>
+  <si>
+    <t>BaggyQuin</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d76644-r202461705-Holiday_Inn_Express_Costa_Mesa-Costa_Mesa_California.html</t>
@@ -2506,43 +2758,47 @@
       <c r="A2" t="n">
         <v>25603</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>191925</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2554,56 +2810,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>25603</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>191926</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -2621,56 +2881,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>25603</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>191927</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -2688,56 +2952,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>25603</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>191928</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2749,56 +3017,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>25603</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>29481</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2810,56 +3082,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>25603</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>36410</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -2875,56 +3151,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="X7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>25603</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>191929</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -2942,56 +3222,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="X8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>25603</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>191930</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -3009,56 +3293,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="X9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>25603</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>6147</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="O10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -3076,56 +3364,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="X10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>25603</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>191931</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -3145,50 +3437,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>25603</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>191932</v>
+      </c>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O12" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3202,50 +3498,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>25603</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>96358</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>135</v>
       </c>
-      <c r="L13" t="s">
-        <v>136</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>125</v>
-      </c>
-      <c r="O13" t="s">
-        <v>116</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3259,50 +3559,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>25603</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>191933</v>
+      </c>
+      <c r="C14" t="s">
+        <v>150</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="O14" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3316,50 +3620,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>25603</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>191934</v>
+      </c>
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="K15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3377,41 +3685,45 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>25603</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>191935</v>
+      </c>
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
@@ -3430,50 +3742,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>25603</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>191936</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3491,56 +3807,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="X17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="Y17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>25603</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>90542</v>
+      </c>
+      <c r="C18" t="s">
+        <v>180</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="O18" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3552,47 +3872,51 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="X18" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="Y18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>25603</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>8981</v>
+      </c>
+      <c r="C19" t="s">
+        <v>187</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="J19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
@@ -3609,47 +3933,51 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="X19" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="Y19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>25603</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>191937</v>
+      </c>
+      <c r="C20" t="s">
+        <v>195</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="K20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
@@ -3666,56 +3994,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="X20" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="Y20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>25603</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>26115</v>
+      </c>
+      <c r="C21" t="s">
+        <v>202</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="J21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="K21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="O21" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3727,56 +4059,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="X21" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="Y21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>25603</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>42315</v>
+      </c>
+      <c r="C22" t="s">
+        <v>210</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="J22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="K22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="O22" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -3792,56 +4128,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="X22" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="Y22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>25603</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>191938</v>
+      </c>
+      <c r="C23" t="s">
+        <v>218</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="J23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="K23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="O23" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3861,50 +4201,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>25603</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>191939</v>
+      </c>
+      <c r="C24" t="s">
+        <v>225</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="J24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="K24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="O24" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3918,50 +4262,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>25603</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>191940</v>
+      </c>
+      <c r="C25" t="s">
+        <v>231</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="J25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="K25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="L25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="O25" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3981,50 +4329,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>25603</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>7545</v>
+      </c>
+      <c r="C26" t="s">
+        <v>237</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="J26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="K26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="O26" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4042,56 +4394,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="X26" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="Y26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>25603</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>191941</v>
+      </c>
+      <c r="C27" t="s">
+        <v>247</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="J27" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="K27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="L27" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -4109,56 +4465,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="X27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="Y27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>25603</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>10997</v>
+      </c>
+      <c r="C28" t="s">
+        <v>257</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="J28" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="K28" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="O28" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -4176,56 +4536,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="X28" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="Y28" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>25603</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>191942</v>
+      </c>
+      <c r="C29" t="s">
+        <v>264</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="J29" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="K29" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="L29" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="O29" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4243,56 +4607,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="X29" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="Y29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>25603</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>41424</v>
+      </c>
+      <c r="C30" t="s">
+        <v>273</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="J30" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="K30" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4310,56 +4678,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="X30" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="Y30" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>25603</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>191943</v>
+      </c>
+      <c r="C31" t="s">
+        <v>282</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="J31" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="K31" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4377,56 +4749,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="X31" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="Y31" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>25603</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>191944</v>
+      </c>
+      <c r="C32" t="s">
+        <v>292</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J32" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="K32" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="L32" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="O32" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -4444,56 +4820,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="X32" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="Y32" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>25603</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>191945</v>
+      </c>
+      <c r="C33" t="s">
+        <v>301</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="J33" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="K33" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="L33" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4505,56 +4885,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="X33" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="Y33" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>25603</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>824</v>
+      </c>
+      <c r="C34" t="s">
+        <v>308</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="J34" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="K34" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="L34" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="O34" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4566,56 +4950,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="X34" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="Y34" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>25603</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>7524</v>
+      </c>
+      <c r="C35" t="s">
+        <v>317</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="J35" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="K35" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="L35" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="O35" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4635,50 +5023,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>25603</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>191946</v>
+      </c>
+      <c r="C36" t="s">
+        <v>325</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="J36" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="K36" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="L36" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="O36" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -4696,56 +5088,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="X36" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="Y36" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>25603</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>191947</v>
+      </c>
+      <c r="C37" t="s">
+        <v>334</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="J37" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="K37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="L37" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="O37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -4761,56 +5157,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="X37" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="Y37" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>25603</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>191948</v>
+      </c>
+      <c r="C38" t="s">
+        <v>344</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="J38" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="K38" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="L38" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="O38" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -4828,56 +5228,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="X38" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="Y38" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>25603</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>191949</v>
+      </c>
+      <c r="C39" t="s">
+        <v>352</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="J39" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="K39" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="L39" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4889,56 +5293,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="X39" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="Y39" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>25603</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>191950</v>
+      </c>
+      <c r="C40" t="s">
+        <v>361</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="J40" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="K40" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="L40" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="O40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4950,56 +5358,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="X40" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="Y40" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>25603</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>191951</v>
+      </c>
+      <c r="C41" t="s">
+        <v>369</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="J41" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="K41" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="L41" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="O41" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -5017,56 +5429,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="X41" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="Y41" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>25603</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>191952</v>
+      </c>
+      <c r="C42" t="s">
+        <v>377</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="J42" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="K42" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="L42" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="O42" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -5086,50 +5502,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>25603</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>191953</v>
+      </c>
+      <c r="C43" t="s">
+        <v>384</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="J43" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="K43" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="L43" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="O43" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5147,56 +5567,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="X43" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="Y43" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>25603</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>96950</v>
+      </c>
+      <c r="C44" t="s">
+        <v>393</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="J44" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="K44" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="L44" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="O44" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5208,56 +5632,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="X44" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="Y44" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>25603</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>191954</v>
+      </c>
+      <c r="C45" t="s">
+        <v>403</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="J45" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="K45" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="L45" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="O45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5269,56 +5697,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="X45" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="Y45" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>25603</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>7428</v>
+      </c>
+      <c r="C46" t="s">
+        <v>410</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="J46" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="K46" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="L46" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -5336,56 +5768,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="X46" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="Y46" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>25603</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>191955</v>
+      </c>
+      <c r="C47" t="s">
+        <v>417</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="J47" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="K47" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="L47" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="O47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -5403,56 +5839,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="X47" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="Y47" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>25603</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>20272</v>
+      </c>
+      <c r="C48" t="s">
+        <v>427</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
       <c r="J48" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="K48" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="L48" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="O48" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -5470,47 +5910,51 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="X48" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="Y48" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>25603</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>191956</v>
+      </c>
+      <c r="C49" t="s">
+        <v>437</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="J49" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="K49" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="L49" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
@@ -5527,56 +5971,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="X49" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="Y49" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>25603</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>100019</v>
+      </c>
+      <c r="C50" t="s">
+        <v>446</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="J50" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="K50" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="L50" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="O50" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -5594,56 +6042,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="X50" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="Y50" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>25603</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>191957</v>
+      </c>
+      <c r="C51" t="s">
+        <v>456</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="J51" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
       <c r="K51" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="L51" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="M51" t="n">
         <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="O51" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5655,56 +6107,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="X51" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="Y51" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>25603</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>191958</v>
+      </c>
+      <c r="C52" t="s">
+        <v>465</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="J52" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="K52" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="L52" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -5720,56 +6176,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="X52" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="Y52" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>25603</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>191959</v>
+      </c>
+      <c r="C53" t="s">
+        <v>475</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="J53" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="K53" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="L53" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5787,56 +6247,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="X53" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="Y53" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>25603</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>10015</v>
+      </c>
+      <c r="C54" t="s">
+        <v>484</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="J54" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="K54" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="L54" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="O54" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5848,56 +6312,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="X54" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="Y54" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>25603</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>191960</v>
+      </c>
+      <c r="C55" t="s">
+        <v>494</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
       <c r="J55" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="K55" t="s">
-        <v>444</v>
+        <v>498</v>
       </c>
       <c r="L55" t="s">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="O55" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="n">
@@ -5915,56 +6383,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="X55" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="Y55" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>25603</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>191961</v>
+      </c>
+      <c r="C56" t="s">
+        <v>503</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="J56" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="K56" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="L56" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="O56" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -5982,56 +6454,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="X56" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="Y56" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>25603</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>44942</v>
+      </c>
+      <c r="C57" t="s">
+        <v>512</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>457</v>
+        <v>513</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>458</v>
+        <v>514</v>
       </c>
       <c r="J57" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="K57" t="s">
-        <v>459</v>
+        <v>515</v>
       </c>
       <c r="L57" t="s">
-        <v>460</v>
+        <v>516</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="O57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6043,56 +6519,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="X57" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="Y57" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>25603</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>191962</v>
+      </c>
+      <c r="C58" t="s">
+        <v>518</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>462</v>
+        <v>519</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>463</v>
+        <v>520</v>
       </c>
       <c r="J58" t="s">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="K58" t="s">
-        <v>465</v>
+        <v>522</v>
       </c>
       <c r="L58" t="s">
-        <v>466</v>
+        <v>523</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6104,56 +6584,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="X58" t="s">
-        <v>469</v>
+        <v>526</v>
       </c>
       <c r="Y58" t="s">
-        <v>470</v>
+        <v>527</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>25603</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>191963</v>
+      </c>
+      <c r="C59" t="s">
+        <v>528</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>471</v>
+        <v>529</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>472</v>
+        <v>530</v>
       </c>
       <c r="J59" t="s">
-        <v>473</v>
+        <v>531</v>
       </c>
       <c r="K59" t="s">
-        <v>474</v>
+        <v>532</v>
       </c>
       <c r="L59" t="s">
-        <v>475</v>
+        <v>533</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>476</v>
+        <v>534</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6169,56 +6653,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="X59" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
       <c r="Y59" t="s">
-        <v>479</v>
+        <v>537</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>25603</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>191964</v>
+      </c>
+      <c r="C60" t="s">
+        <v>538</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>480</v>
+        <v>539</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>481</v>
+        <v>540</v>
       </c>
       <c r="J60" t="s">
-        <v>482</v>
+        <v>541</v>
       </c>
       <c r="K60" t="s">
-        <v>483</v>
+        <v>542</v>
       </c>
       <c r="L60" t="s">
-        <v>484</v>
+        <v>543</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>476</v>
+        <v>534</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6230,56 +6718,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="X60" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
       <c r="Y60" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>25603</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>8298</v>
+      </c>
+      <c r="C61" t="s">
+        <v>545</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>486</v>
+        <v>546</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
       <c r="J61" t="s">
-        <v>488</v>
+        <v>548</v>
       </c>
       <c r="K61" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
       <c r="L61" t="s">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
       <c r="O61" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P61" t="n">
         <v>3</v>
@@ -6295,56 +6787,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
       <c r="X61" t="s">
-        <v>493</v>
+        <v>553</v>
       </c>
       <c r="Y61" t="s">
-        <v>494</v>
+        <v>554</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>25603</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>3638</v>
+      </c>
+      <c r="C62" t="s">
+        <v>555</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>495</v>
+        <v>556</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>496</v>
+        <v>557</v>
       </c>
       <c r="J62" t="s">
-        <v>497</v>
+        <v>558</v>
       </c>
       <c r="K62" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
       <c r="L62" t="s">
-        <v>499</v>
+        <v>560</v>
       </c>
       <c r="M62" t="n">
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6356,56 +6852,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>500</v>
+        <v>561</v>
       </c>
       <c r="X62" t="s">
-        <v>501</v>
+        <v>562</v>
       </c>
       <c r="Y62" t="s">
-        <v>502</v>
+        <v>563</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>25603</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C63" t="s">
+        <v>564</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>503</v>
+        <v>565</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>504</v>
+        <v>566</v>
       </c>
       <c r="J63" t="s">
-        <v>505</v>
+        <v>567</v>
       </c>
       <c r="K63" t="s">
-        <v>506</v>
+        <v>568</v>
       </c>
       <c r="L63" t="s">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>508</v>
+        <v>570</v>
       </c>
       <c r="O63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6425,50 +6925,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>507</v>
+        <v>569</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>25603</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>191965</v>
+      </c>
+      <c r="C64" t="s">
+        <v>571</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>510</v>
+        <v>573</v>
       </c>
       <c r="J64" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="K64" t="s">
-        <v>512</v>
+        <v>575</v>
       </c>
       <c r="L64" t="s">
-        <v>513</v>
+        <v>576</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6484,56 +6988,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>514</v>
+        <v>577</v>
       </c>
       <c r="X64" t="s">
-        <v>515</v>
+        <v>578</v>
       </c>
       <c r="Y64" t="s">
-        <v>516</v>
+        <v>579</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>25603</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>191966</v>
+      </c>
+      <c r="C65" t="s">
+        <v>580</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>517</v>
+        <v>581</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>518</v>
+        <v>582</v>
       </c>
       <c r="J65" t="s">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="K65" t="s">
-        <v>520</v>
+        <v>584</v>
       </c>
       <c r="L65" t="s">
-        <v>521</v>
+        <v>585</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>522</v>
+        <v>586</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6553,50 +7061,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>521</v>
+        <v>585</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>25603</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>191967</v>
+      </c>
+      <c r="C66" t="s">
+        <v>587</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>523</v>
+        <v>588</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>524</v>
+        <v>589</v>
       </c>
       <c r="J66" t="s">
-        <v>525</v>
+        <v>590</v>
       </c>
       <c r="K66" t="s">
-        <v>526</v>
+        <v>591</v>
       </c>
       <c r="L66" t="s">
-        <v>527</v>
+        <v>592</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>522</v>
+        <v>586</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -6610,50 +7122,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>527</v>
+        <v>592</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>25603</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>191968</v>
+      </c>
+      <c r="C67" t="s">
+        <v>593</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>528</v>
+        <v>594</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>529</v>
+        <v>595</v>
       </c>
       <c r="J67" t="s">
-        <v>530</v>
+        <v>596</v>
       </c>
       <c r="K67" t="s">
-        <v>531</v>
+        <v>597</v>
       </c>
       <c r="L67" t="s">
-        <v>532</v>
+        <v>598</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>533</v>
+        <v>599</v>
       </c>
       <c r="O67" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -6669,56 +7185,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>534</v>
+        <v>600</v>
       </c>
       <c r="X67" t="s">
-        <v>535</v>
+        <v>601</v>
       </c>
       <c r="Y67" t="s">
-        <v>536</v>
+        <v>602</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>25603</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>86957</v>
+      </c>
+      <c r="C68" t="s">
+        <v>603</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>537</v>
+        <v>604</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>538</v>
+        <v>605</v>
       </c>
       <c r="J68" t="s">
-        <v>539</v>
+        <v>606</v>
       </c>
       <c r="K68" t="s">
-        <v>540</v>
+        <v>607</v>
       </c>
       <c r="L68" t="s">
-        <v>541</v>
+        <v>608</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>542</v>
+        <v>609</v>
       </c>
       <c r="O68" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -6732,50 +7252,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>541</v>
+        <v>608</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>25603</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>191969</v>
+      </c>
+      <c r="C69" t="s">
+        <v>610</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>543</v>
+        <v>611</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>544</v>
+        <v>612</v>
       </c>
       <c r="J69" t="s">
-        <v>545</v>
+        <v>613</v>
       </c>
       <c r="K69" t="s">
-        <v>546</v>
+        <v>614</v>
       </c>
       <c r="L69" t="s">
-        <v>547</v>
+        <v>615</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>508</v>
+        <v>570</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -6795,50 +7319,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>547</v>
+        <v>615</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>25603</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>14777</v>
+      </c>
+      <c r="C70" t="s">
+        <v>616</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>548</v>
+        <v>617</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>549</v>
+        <v>618</v>
       </c>
       <c r="J70" t="s">
-        <v>550</v>
+        <v>619</v>
       </c>
       <c r="K70" t="s">
-        <v>551</v>
+        <v>620</v>
       </c>
       <c r="L70" t="s">
-        <v>552</v>
+        <v>621</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>508</v>
+        <v>570</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -6852,50 +7380,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>552</v>
+        <v>621</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>25603</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>191970</v>
+      </c>
+      <c r="C71" t="s">
+        <v>622</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>553</v>
+        <v>623</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>554</v>
+        <v>624</v>
       </c>
       <c r="J71" t="s">
-        <v>555</v>
+        <v>625</v>
       </c>
       <c r="K71" t="s">
-        <v>556</v>
+        <v>626</v>
       </c>
       <c r="L71" t="s">
-        <v>557</v>
+        <v>627</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>558</v>
+        <v>628</v>
       </c>
       <c r="O71" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -6913,50 +7445,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>557</v>
+        <v>627</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>25603</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>191971</v>
+      </c>
+      <c r="C72" t="s">
+        <v>629</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>559</v>
+        <v>630</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>560</v>
+        <v>631</v>
       </c>
       <c r="J72" t="s">
-        <v>561</v>
+        <v>632</v>
       </c>
       <c r="K72" t="s">
-        <v>562</v>
+        <v>633</v>
       </c>
       <c r="L72" t="s">
-        <v>563</v>
+        <v>634</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>564</v>
+        <v>635</v>
       </c>
       <c r="O72" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="n">
@@ -6974,56 +7510,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>565</v>
+        <v>636</v>
       </c>
       <c r="X72" t="s">
-        <v>566</v>
+        <v>637</v>
       </c>
       <c r="Y72" t="s">
-        <v>567</v>
+        <v>638</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>25603</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>191972</v>
+      </c>
+      <c r="C73" t="s">
+        <v>639</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>568</v>
+        <v>640</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>569</v>
+        <v>641</v>
       </c>
       <c r="J73" t="s">
-        <v>570</v>
+        <v>642</v>
       </c>
       <c r="K73" t="s">
-        <v>571</v>
+        <v>643</v>
       </c>
       <c r="L73" t="s">
-        <v>572</v>
+        <v>644</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>573</v>
+        <v>645</v>
       </c>
       <c r="O73" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="n">
@@ -7041,50 +7581,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>572</v>
+        <v>644</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>25603</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>32276</v>
+      </c>
+      <c r="C74" t="s">
+        <v>646</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>574</v>
+        <v>647</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>575</v>
+        <v>648</v>
       </c>
       <c r="J74" t="s">
-        <v>576</v>
+        <v>649</v>
       </c>
       <c r="K74" t="s">
-        <v>577</v>
+        <v>650</v>
       </c>
       <c r="L74" t="s">
-        <v>578</v>
+        <v>651</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>579</v>
+        <v>652</v>
       </c>
       <c r="O74" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7098,50 +7642,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>578</v>
+        <v>651</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>25603</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>18787</v>
+      </c>
+      <c r="C75" t="s">
+        <v>653</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>580</v>
+        <v>654</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>581</v>
+        <v>655</v>
       </c>
       <c r="J75" t="s">
-        <v>582</v>
+        <v>656</v>
       </c>
       <c r="K75" t="s">
-        <v>583</v>
+        <v>657</v>
       </c>
       <c r="L75" t="s">
-        <v>584</v>
+        <v>658</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>579</v>
+        <v>652</v>
       </c>
       <c r="O75" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="s"/>
@@ -7155,41 +7703,45 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>585</v>
+        <v>659</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>25603</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>191973</v>
+      </c>
+      <c r="C76" t="s">
+        <v>660</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>586</v>
+        <v>661</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>587</v>
+        <v>662</v>
       </c>
       <c r="J76" t="s">
-        <v>588</v>
+        <v>663</v>
       </c>
       <c r="K76" t="s">
-        <v>589</v>
+        <v>664</v>
       </c>
       <c r="L76" t="s">
-        <v>590</v>
+        <v>665</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
@@ -7218,50 +7770,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>590</v>
+        <v>665</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>25603</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>191974</v>
+      </c>
+      <c r="C77" t="s">
+        <v>666</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>591</v>
+        <v>667</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>592</v>
+        <v>668</v>
       </c>
       <c r="J77" t="s">
-        <v>593</v>
+        <v>669</v>
       </c>
       <c r="K77" t="s">
-        <v>594</v>
+        <v>670</v>
       </c>
       <c r="L77" t="s">
-        <v>595</v>
+        <v>671</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>558</v>
+        <v>628</v>
       </c>
       <c r="O77" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="s"/>
@@ -7275,50 +7831,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>596</v>
+        <v>672</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>25603</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>191975</v>
+      </c>
+      <c r="C78" t="s">
+        <v>673</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>597</v>
+        <v>674</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>598</v>
+        <v>675</v>
       </c>
       <c r="J78" t="s">
-        <v>599</v>
+        <v>676</v>
       </c>
       <c r="K78" t="s">
-        <v>600</v>
+        <v>677</v>
       </c>
       <c r="L78" t="s">
-        <v>601</v>
+        <v>678</v>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>602</v>
+        <v>679</v>
       </c>
       <c r="O78" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s"/>
@@ -7334,56 +7894,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>603</v>
+        <v>680</v>
       </c>
       <c r="X78" t="s">
-        <v>604</v>
+        <v>681</v>
       </c>
       <c r="Y78" t="s">
-        <v>605</v>
+        <v>682</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>25603</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>12390</v>
+      </c>
+      <c r="C79" t="s">
+        <v>683</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>606</v>
+        <v>684</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>607</v>
+        <v>685</v>
       </c>
       <c r="J79" t="s">
-        <v>608</v>
+        <v>686</v>
       </c>
       <c r="K79" t="s">
-        <v>609</v>
+        <v>687</v>
       </c>
       <c r="L79" t="s">
-        <v>610</v>
+        <v>688</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>602</v>
+        <v>679</v>
       </c>
       <c r="O79" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="s"/>
@@ -7395,56 +7959,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>611</v>
+        <v>689</v>
       </c>
       <c r="X79" t="s">
-        <v>612</v>
+        <v>690</v>
       </c>
       <c r="Y79" t="s">
-        <v>613</v>
+        <v>691</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>25603</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>17994</v>
+      </c>
+      <c r="C80" t="s">
+        <v>692</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>614</v>
+        <v>693</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>615</v>
+        <v>694</v>
       </c>
       <c r="J80" t="s">
-        <v>616</v>
+        <v>695</v>
       </c>
       <c r="K80" t="s">
-        <v>617</v>
+        <v>696</v>
       </c>
       <c r="L80" t="s">
-        <v>618</v>
+        <v>697</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>619</v>
+        <v>698</v>
       </c>
       <c r="O80" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -7466,56 +8034,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>620</v>
+        <v>699</v>
       </c>
       <c r="X80" t="s">
-        <v>621</v>
+        <v>700</v>
       </c>
       <c r="Y80" t="s">
-        <v>622</v>
+        <v>701</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>25603</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>191976</v>
+      </c>
+      <c r="C81" t="s">
+        <v>702</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>623</v>
+        <v>703</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>624</v>
+        <v>704</v>
       </c>
       <c r="J81" t="s">
-        <v>625</v>
+        <v>705</v>
       </c>
       <c r="K81" t="s">
-        <v>626</v>
+        <v>706</v>
       </c>
       <c r="L81" t="s">
-        <v>627</v>
+        <v>707</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>628</v>
+        <v>708</v>
       </c>
       <c r="O81" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="s"/>
@@ -7529,50 +8101,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>627</v>
+        <v>707</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>25603</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>191977</v>
+      </c>
+      <c r="C82" t="s">
+        <v>709</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>629</v>
+        <v>710</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>630</v>
+        <v>711</v>
       </c>
       <c r="J82" t="s">
-        <v>631</v>
+        <v>712</v>
       </c>
       <c r="K82" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="L82" t="s">
-        <v>632</v>
+        <v>713</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>633</v>
+        <v>714</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>3</v>
@@ -7596,50 +8172,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>634</v>
+        <v>715</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>25603</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>584</v>
+      </c>
+      <c r="C83" t="s">
+        <v>716</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>635</v>
+        <v>717</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>636</v>
+        <v>718</v>
       </c>
       <c r="J83" t="s">
-        <v>637</v>
+        <v>719</v>
       </c>
       <c r="K83" t="s">
-        <v>638</v>
+        <v>720</v>
       </c>
       <c r="L83" t="s">
-        <v>639</v>
+        <v>721</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>633</v>
+        <v>714</v>
       </c>
       <c r="O83" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P83" t="n">
         <v>1</v>
@@ -7661,56 +8241,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>640</v>
+        <v>722</v>
       </c>
       <c r="X83" t="s">
-        <v>641</v>
+        <v>723</v>
       </c>
       <c r="Y83" t="s">
-        <v>642</v>
+        <v>724</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>25603</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>30962</v>
+      </c>
+      <c r="C84" t="s">
+        <v>725</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>643</v>
+        <v>726</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>644</v>
+        <v>727</v>
       </c>
       <c r="J84" t="s">
-        <v>645</v>
+        <v>728</v>
       </c>
       <c r="K84" t="s">
-        <v>646</v>
+        <v>729</v>
       </c>
       <c r="L84" t="s">
-        <v>647</v>
+        <v>730</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>633</v>
+        <v>714</v>
       </c>
       <c r="O84" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P84" t="s"/>
       <c r="Q84" t="s"/>
@@ -7724,50 +8308,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>648</v>
+        <v>731</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>25603</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>191978</v>
+      </c>
+      <c r="C85" t="s">
+        <v>732</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>649</v>
+        <v>733</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>650</v>
+        <v>734</v>
       </c>
       <c r="J85" t="s">
-        <v>651</v>
+        <v>735</v>
       </c>
       <c r="K85" t="s">
-        <v>652</v>
+        <v>736</v>
       </c>
       <c r="L85" t="s">
-        <v>653</v>
+        <v>737</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
       <c r="N85" t="s">
-        <v>654</v>
+        <v>738</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="n">
         <v>3</v>
@@ -7789,13 +8377,13 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>655</v>
+        <v>739</v>
       </c>
       <c r="X85" t="s">
-        <v>656</v>
+        <v>740</v>
       </c>
       <c r="Y85" t="s">
-        <v>657</v>
+        <v>741</v>
       </c>
     </row>
   </sheetData>
